--- a/teaching/traditional_assets/database/data/oman/oman_chemical_specialty.xlsx
+++ b/teaching/traditional_assets/database/data/oman/oman_chemical_specialty.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="msm_gici" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,46 +593,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.12</v>
+        <v>-0.0998</v>
       </c>
       <c r="E2">
-        <v>-0.118</v>
+        <v>-0.268</v>
       </c>
       <c r="G2">
-        <v>0.05655577299412917</v>
+        <v>0.02400635930047695</v>
       </c>
       <c r="H2">
-        <v>0.05499021526418787</v>
+        <v>0.02273449920508744</v>
       </c>
       <c r="I2">
-        <v>0.001501188537799808</v>
+        <v>0.021939586645469</v>
       </c>
       <c r="J2">
-        <v>0.001353932986408001</v>
+        <v>0.021939586645469</v>
       </c>
       <c r="K2">
-        <v>0.33</v>
+        <v>0.527</v>
       </c>
       <c r="L2">
-        <v>0.06457925636007827</v>
+        <v>0.08378378378378379</v>
       </c>
       <c r="M2">
-        <v>0.273</v>
+        <v>0.301</v>
       </c>
       <c r="N2">
-        <v>0.04550000000000001</v>
+        <v>0.05413669064748201</v>
       </c>
       <c r="O2">
-        <v>0.8272727272727273</v>
+        <v>0.571157495256167</v>
       </c>
       <c r="P2">
-        <v>0.273</v>
+        <v>0.301</v>
       </c>
       <c r="Q2">
-        <v>0.04550000000000001</v>
+        <v>0.05413669064748201</v>
       </c>
       <c r="R2">
-        <v>0.8272727272727273</v>
+        <v>0.571157495256167</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,70 +641,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1.49</v>
+        <v>1.86</v>
       </c>
       <c r="V2">
-        <v>0.2483333333333333</v>
+        <v>0.3345323741007195</v>
       </c>
       <c r="W2">
-        <v>0.04615384615384616</v>
+        <v>0.07485795454545455</v>
       </c>
       <c r="X2">
-        <v>0.09516884794261977</v>
+        <v>0.09089627054246087</v>
       </c>
       <c r="Y2">
-        <v>-0.04901500178877362</v>
+        <v>-0.01603831599700632</v>
       </c>
       <c r="Z2">
-        <v>1.104472118672766</v>
+        <v>1.133333333333333</v>
       </c>
       <c r="AA2">
-        <v>0.00149538123403899</v>
+        <v>0.02486486486486487</v>
       </c>
       <c r="AB2">
-        <v>0.09467330472523293</v>
+        <v>0.09052302864404389</v>
       </c>
       <c r="AC2">
-        <v>-0.09317792349119394</v>
+        <v>-0.06565816377917902</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.044</v>
       </c>
       <c r="AE2">
-        <v>0.0666446328592149</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0666446328592149</v>
+        <v>0.044</v>
       </c>
       <c r="AG2">
-        <v>-1.423355367140785</v>
+        <v>-1.816</v>
       </c>
       <c r="AH2">
-        <v>0.01098541894117923</v>
+        <v>0.007851534618129909</v>
       </c>
       <c r="AI2">
-        <v>0.009377791672749195</v>
+        <v>0.006057268722466961</v>
       </c>
       <c r="AJ2">
-        <v>-0.3110041266742525</v>
+        <v>-0.4850427350427351</v>
       </c>
       <c r="AK2">
-        <v>-0.2534173799805117</v>
+        <v>-0.3360473723168024</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="AM2">
-        <v>-0.068</v>
+        <v>-0.166</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>0.1692307692307692</v>
+      </c>
+      <c r="AO2">
+        <v>27.6</v>
       </c>
       <c r="AP2">
-        <v>-16.17449280841801</v>
+        <v>-6.984615384615385</v>
       </c>
       <c r="AQ2">
-        <v>-0.1176470588235294</v>
+        <v>-0.8313253012048193</v>
       </c>
     </row>
     <row r="3">
@@ -722,118 +727,8839 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.12</v>
+        <v>-0.0998</v>
       </c>
       <c r="E3">
-        <v>-0.118</v>
+        <v>-0.268</v>
       </c>
       <c r="G3">
-        <v>0.05655577299412917</v>
+        <v>0.02400635930047695</v>
       </c>
       <c r="H3">
-        <v>0.05499021526418787</v>
+        <v>0.02273449920508744</v>
       </c>
       <c r="I3">
-        <v>0.001501188537799808</v>
+        <v>0.021939586645469</v>
       </c>
       <c r="J3">
-        <v>0.001353932986408001</v>
+        <v>0.021939586645469</v>
       </c>
       <c r="K3">
+        <v>0.527</v>
+      </c>
+      <c r="L3">
+        <v>0.08378378378378379</v>
+      </c>
+      <c r="M3">
+        <v>0.301</v>
+      </c>
+      <c r="N3">
+        <v>0.05413669064748201</v>
+      </c>
+      <c r="O3">
+        <v>0.571157495256167</v>
+      </c>
+      <c r="P3">
+        <v>0.301</v>
+      </c>
+      <c r="Q3">
+        <v>0.05413669064748201</v>
+      </c>
+      <c r="R3">
+        <v>0.571157495256167</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>1.86</v>
+      </c>
+      <c r="V3">
+        <v>0.3345323741007195</v>
+      </c>
+      <c r="W3">
+        <v>0.07485795454545455</v>
+      </c>
+      <c r="X3">
+        <v>0.09089627054246087</v>
+      </c>
+      <c r="Y3">
+        <v>-0.01603831599700632</v>
+      </c>
+      <c r="Z3">
+        <v>1.133333333333333</v>
+      </c>
+      <c r="AA3">
+        <v>0.02486486486486487</v>
+      </c>
+      <c r="AB3">
+        <v>0.09052302864404389</v>
+      </c>
+      <c r="AC3">
+        <v>-0.06565816377917902</v>
+      </c>
+      <c r="AD3">
+        <v>0.044</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0.044</v>
+      </c>
+      <c r="AG3">
+        <v>-1.816</v>
+      </c>
+      <c r="AH3">
+        <v>0.007851534618129909</v>
+      </c>
+      <c r="AI3">
+        <v>0.006057268722466961</v>
+      </c>
+      <c r="AJ3">
+        <v>-0.4850427350427351</v>
+      </c>
+      <c r="AK3">
+        <v>-0.3360473723168024</v>
+      </c>
+      <c r="AL3">
+        <v>0.005</v>
+      </c>
+      <c r="AM3">
+        <v>-0.166</v>
+      </c>
+      <c r="AN3">
+        <v>0.1692307692307692</v>
+      </c>
+      <c r="AO3">
+        <v>27.6</v>
+      </c>
+      <c r="AP3">
+        <v>-6.984615384615385</v>
+      </c>
+      <c r="AQ3">
+        <v>-0.8313253012048193</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Gulf International Chemicals SAOG (MSM:GICI)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MSM:GICI</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Chemical (Specialty)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Oman</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.00785153461812991</v>
+      </c>
+      <c r="F2">
+        <v>0.11</v>
+      </c>
+      <c r="G2">
+        <v>5.56</v>
+      </c>
+      <c r="H2">
+        <v>5.03506172226563</v>
+      </c>
+      <c r="I2">
+        <v>3.744</v>
+      </c>
+      <c r="J2">
+        <v>3.79150172226563</v>
+      </c>
+      <c r="K2">
+        <v>0.044</v>
+      </c>
+      <c r="L2">
+        <v>0.61644</v>
+      </c>
+      <c r="M2">
+        <v>0.09052302864404391</v>
+      </c>
+      <c r="N2">
+        <v>0.089505428223196</v>
+      </c>
+      <c r="O2">
+        <v>0.0433588251168076</v>
+      </c>
+      <c r="P2">
+        <v>0.01377</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.0908962705424609</v>
+      </c>
+      <c r="T2">
+        <v>0.0988659867676359</v>
+      </c>
+      <c r="U2">
+        <v>0.994327826349812</v>
+      </c>
+      <c r="V2">
+        <v>1.09144636569138</v>
+      </c>
+      <c r="W2">
+        <v>13.81889319077043</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>5.56</v>
+      </c>
+      <c r="AB2">
+        <v>0.08206173897596897</v>
+      </c>
+      <c r="AC2">
+        <v>0.05101038249036188</v>
+      </c>
+      <c r="AD2">
+        <v>0.15</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>0.26</v>
+      </c>
+      <c r="AH2">
+        <v>0.122</v>
+      </c>
+      <c r="AI2">
+        <v>0.122</v>
+      </c>
+      <c r="AJ2">
+        <v>0.044</v>
+      </c>
+      <c r="AK2">
+        <v>0.044</v>
+      </c>
+      <c r="AL2">
+        <v>0.005</v>
+      </c>
+      <c r="AM2">
+        <v>0.044</v>
+      </c>
+      <c r="AN2">
+        <v>1.86</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.09035107089292931</v>
+      </c>
+      <c r="C2">
+        <v>5.611943261120182</v>
+      </c>
+      <c r="D2">
+        <v>3.751943261120182</v>
+      </c>
+      <c r="E2">
+        <v>-0.044</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1.86</v>
+      </c>
+      <c r="H2">
+        <v>5.56</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.26</v>
+      </c>
+      <c r="K2">
+        <v>0.122</v>
+      </c>
+      <c r="L2">
+        <v>0.138</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.138</v>
+      </c>
+      <c r="O2">
+        <v>0.0207</v>
+      </c>
+      <c r="P2">
+        <v>0.1173</v>
+      </c>
+      <c r="Q2">
+        <v>0.2393</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.09035107089292931</v>
+      </c>
+      <c r="T2">
+        <v>0.9876840523287518</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.15</v>
+      </c>
+      <c r="W2">
+        <v>0.01377</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.09027419428658991</v>
+      </c>
+      <c r="C3">
+        <v>5.55946534244293</v>
+      </c>
+      <c r="D3">
+        <v>3.755505342442931</v>
+      </c>
+      <c r="E3">
+        <v>0.01204</v>
+      </c>
+      <c r="F3">
+        <v>0.05603999999999999</v>
+      </c>
+      <c r="G3">
+        <v>1.86</v>
+      </c>
+      <c r="H3">
+        <v>5.56</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.26</v>
+      </c>
+      <c r="K3">
+        <v>0.122</v>
+      </c>
+      <c r="L3">
+        <v>0.138</v>
+      </c>
+      <c r="M3">
+        <v>0.0009078479999999998</v>
+      </c>
+      <c r="N3">
+        <v>0.137092152</v>
+      </c>
+      <c r="O3">
+        <v>0.0205638228</v>
+      </c>
+      <c r="P3">
+        <v>0.1165283292</v>
+      </c>
+      <c r="Q3">
+        <v>0.2385283292</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.09104696392584839</v>
+      </c>
+      <c r="T3">
+        <v>0.9961641679295541</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.15</v>
+      </c>
+      <c r="W3">
+        <v>0.01377</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>152.0078250984747</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.09019731768025051</v>
+      </c>
+      <c r="C4">
+        <v>5.506994193847345</v>
+      </c>
+      <c r="D4">
+        <v>3.759074193847345</v>
+      </c>
+      <c r="E4">
+        <v>0.06807999999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.11208</v>
+      </c>
+      <c r="G4">
+        <v>1.86</v>
+      </c>
+      <c r="H4">
+        <v>5.56</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.26</v>
+      </c>
+      <c r="K4">
+        <v>0.122</v>
+      </c>
+      <c r="L4">
+        <v>0.138</v>
+      </c>
+      <c r="M4">
+        <v>0.001815696</v>
+      </c>
+      <c r="N4">
+        <v>0.136184304</v>
+      </c>
+      <c r="O4">
+        <v>0.0204276456</v>
+      </c>
+      <c r="P4">
+        <v>0.1157566584</v>
+      </c>
+      <c r="Q4">
+        <v>0.2377566584</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.09175705885739849</v>
+      </c>
+      <c r="T4">
+        <v>1.004817347114046</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.15</v>
+      </c>
+      <c r="W4">
+        <v>0.01377</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>76.00391254923733</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.09012044107391112</v>
+      </c>
+      <c r="C5">
+        <v>5.45452983465258</v>
+      </c>
+      <c r="D5">
+        <v>3.76264983465258</v>
+      </c>
+      <c r="E5">
+        <v>0.12412</v>
+      </c>
+      <c r="F5">
+        <v>0.16812</v>
+      </c>
+      <c r="G5">
+        <v>1.86</v>
+      </c>
+      <c r="H5">
+        <v>5.56</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.26</v>
+      </c>
+      <c r="K5">
+        <v>0.122</v>
+      </c>
+      <c r="L5">
+        <v>0.138</v>
+      </c>
+      <c r="M5">
+        <v>0.002723543999999999</v>
+      </c>
+      <c r="N5">
+        <v>0.135276456</v>
+      </c>
+      <c r="O5">
+        <v>0.0202914684</v>
+      </c>
+      <c r="P5">
+        <v>0.1149849876</v>
+      </c>
+      <c r="Q5">
+        <v>0.2369849876</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.09248179492155786</v>
+      </c>
+      <c r="T5">
+        <v>1.013648942364198</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.15</v>
+      </c>
+      <c r="W5">
+        <v>0.01377</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>50.6692750328249</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.09004356446757172</v>
+      </c>
+      <c r="C6">
+        <v>5.402072284251368</v>
+      </c>
+      <c r="D6">
+        <v>3.766232284251368</v>
+      </c>
+      <c r="E6">
+        <v>0.18016</v>
+      </c>
+      <c r="F6">
+        <v>0.22416</v>
+      </c>
+      <c r="G6">
+        <v>1.86</v>
+      </c>
+      <c r="H6">
+        <v>5.56</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0.26</v>
+      </c>
+      <c r="K6">
+        <v>0.122</v>
+      </c>
+      <c r="L6">
+        <v>0.138</v>
+      </c>
+      <c r="M6">
+        <v>0.003631391999999999</v>
+      </c>
+      <c r="N6">
+        <v>0.134368608</v>
+      </c>
+      <c r="O6">
+        <v>0.0201552912</v>
+      </c>
+      <c r="P6">
+        <v>0.1142133168</v>
+      </c>
+      <c r="Q6">
+        <v>0.2362133168</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.09322162965372055</v>
+      </c>
+      <c r="T6">
+        <v>1.022664529182062</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.15</v>
+      </c>
+      <c r="W6">
+        <v>0.01377</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>38.00195627461866</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.08996668786123233</v>
+      </c>
+      <c r="C7">
+        <v>5.349621562110368</v>
+      </c>
+      <c r="D7">
+        <v>3.769821562110367</v>
+      </c>
+      <c r="E7">
+        <v>0.2362</v>
+      </c>
+      <c r="F7">
+        <v>0.2801999999999999</v>
+      </c>
+      <c r="G7">
+        <v>1.86</v>
+      </c>
+      <c r="H7">
+        <v>5.56</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0.26</v>
+      </c>
+      <c r="K7">
+        <v>0.122</v>
+      </c>
+      <c r="L7">
+        <v>0.138</v>
+      </c>
+      <c r="M7">
+        <v>0.004539239999999999</v>
+      </c>
+      <c r="N7">
+        <v>0.13346076</v>
+      </c>
+      <c r="O7">
+        <v>0.020019114</v>
+      </c>
+      <c r="P7">
+        <v>0.113441646</v>
+      </c>
+      <c r="Q7">
+        <v>0.235441646</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.09397703985392877</v>
+      </c>
+      <c r="T7">
+        <v>1.03186991782767</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.15</v>
+      </c>
+      <c r="W7">
+        <v>0.01377</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>30.40156501969494</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.08988981125489293</v>
+      </c>
+      <c r="C8">
+        <v>5.297177687770515</v>
+      </c>
+      <c r="D8">
+        <v>3.773417687770515</v>
+      </c>
+      <c r="E8">
+        <v>0.2922399999999999</v>
+      </c>
+      <c r="F8">
+        <v>0.3362399999999999</v>
+      </c>
+      <c r="G8">
+        <v>1.86</v>
+      </c>
+      <c r="H8">
+        <v>5.56</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.26</v>
+      </c>
+      <c r="K8">
+        <v>0.122</v>
+      </c>
+      <c r="L8">
+        <v>0.138</v>
+      </c>
+      <c r="M8">
+        <v>0.005447087999999998</v>
+      </c>
+      <c r="N8">
+        <v>0.132552912</v>
+      </c>
+      <c r="O8">
+        <v>0.0198829368</v>
+      </c>
+      <c r="P8">
+        <v>0.1126699752</v>
+      </c>
+      <c r="Q8">
+        <v>0.2346699752</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.09474852261158823</v>
+      </c>
+      <c r="T8">
+        <v>1.041271165806163</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.15</v>
+      </c>
+      <c r="W8">
+        <v>0.01377</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>25.33463751641245</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.08981293464855354</v>
+      </c>
+      <c r="C9">
+        <v>5.244740680847379</v>
+      </c>
+      <c r="D9">
+        <v>3.777020680847379</v>
+      </c>
+      <c r="E9">
+        <v>0.34828</v>
+      </c>
+      <c r="F9">
+        <v>0.39228</v>
+      </c>
+      <c r="G9">
+        <v>1.86</v>
+      </c>
+      <c r="H9">
+        <v>5.56</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.26</v>
+      </c>
+      <c r="K9">
+        <v>0.122</v>
+      </c>
+      <c r="L9">
+        <v>0.138</v>
+      </c>
+      <c r="M9">
+        <v>0.006354935999999999</v>
+      </c>
+      <c r="N9">
+        <v>0.131645064</v>
+      </c>
+      <c r="O9">
+        <v>0.0197467596</v>
+      </c>
+      <c r="P9">
+        <v>0.1118983044</v>
+      </c>
+      <c r="Q9">
+        <v>0.2338983044</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.09553659639629414</v>
+      </c>
+      <c r="T9">
+        <v>1.050874591160537</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.15</v>
+      </c>
+      <c r="W9">
+        <v>0.01377</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>21.71540358549638</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.08973605804221414</v>
+      </c>
+      <c r="C10">
+        <v>5.192310561031523</v>
+      </c>
+      <c r="D10">
+        <v>3.780630561031523</v>
+      </c>
+      <c r="E10">
+        <v>0.40432</v>
+      </c>
+      <c r="F10">
+        <v>0.4483199999999999</v>
+      </c>
+      <c r="G10">
+        <v>1.86</v>
+      </c>
+      <c r="H10">
+        <v>5.56</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.26</v>
+      </c>
+      <c r="K10">
+        <v>0.122</v>
+      </c>
+      <c r="L10">
+        <v>0.138</v>
+      </c>
+      <c r="M10">
+        <v>0.007262783999999999</v>
+      </c>
+      <c r="N10">
+        <v>0.130737216</v>
+      </c>
+      <c r="O10">
+        <v>0.0196105824</v>
+      </c>
+      <c r="P10">
+        <v>0.1111266336</v>
+      </c>
+      <c r="Q10">
+        <v>0.2331266336</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.09634180221979799</v>
+      </c>
+      <c r="T10">
+        <v>1.060686786631312</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.15</v>
+      </c>
+      <c r="W10">
+        <v>0.01377</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>19.00097813730934</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.08965918143587476</v>
+      </c>
+      <c r="C11">
+        <v>5.139887348088855</v>
+      </c>
+      <c r="D11">
+        <v>3.784247348088856</v>
+      </c>
+      <c r="E11">
+        <v>0.4603599999999999</v>
+      </c>
+      <c r="F11">
+        <v>0.5043599999999999</v>
+      </c>
+      <c r="G11">
+        <v>1.86</v>
+      </c>
+      <c r="H11">
+        <v>5.56</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.26</v>
+      </c>
+      <c r="K11">
+        <v>0.122</v>
+      </c>
+      <c r="L11">
+        <v>0.138</v>
+      </c>
+      <c r="M11">
+        <v>0.008170631999999999</v>
+      </c>
+      <c r="N11">
+        <v>0.129829368</v>
+      </c>
+      <c r="O11">
+        <v>0.0194744052</v>
+      </c>
+      <c r="P11">
+        <v>0.1103549628</v>
+      </c>
+      <c r="Q11">
+        <v>0.2323549628</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.09716470487458764</v>
+      </c>
+      <c r="T11">
+        <v>1.070714634749795</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.15</v>
+      </c>
+      <c r="W11">
+        <v>0.01377</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>16.88975834427496</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.08958230482953539</v>
+      </c>
+      <c r="C12">
+        <v>5.087471061860994</v>
+      </c>
+      <c r="D12">
+        <v>3.787871061860994</v>
+      </c>
+      <c r="E12">
+        <v>0.5163999999999999</v>
+      </c>
+      <c r="F12">
+        <v>0.5603999999999999</v>
+      </c>
+      <c r="G12">
+        <v>1.86</v>
+      </c>
+      <c r="H12">
+        <v>5.56</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.26</v>
+      </c>
+      <c r="K12">
+        <v>0.122</v>
+      </c>
+      <c r="L12">
+        <v>0.138</v>
+      </c>
+      <c r="M12">
+        <v>0.009078479999999998</v>
+      </c>
+      <c r="N12">
+        <v>0.12892152</v>
+      </c>
+      <c r="O12">
+        <v>0.019338228</v>
+      </c>
+      <c r="P12">
+        <v>0.109583292</v>
+      </c>
+      <c r="Q12">
+        <v>0.231583292</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.09800589425503931</v>
+      </c>
+      <c r="T12">
+        <v>1.080965323937578</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.15</v>
+      </c>
+      <c r="W12">
+        <v>0.01377</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>15.20078250984747</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.08950542822319597</v>
+      </c>
+      <c r="C13">
+        <v>5.035061722265634</v>
+      </c>
+      <c r="D13">
+        <v>3.791501722265634</v>
+      </c>
+      <c r="E13">
+        <v>0.5724399999999998</v>
+      </c>
+      <c r="F13">
+        <v>0.6164399999999999</v>
+      </c>
+      <c r="G13">
+        <v>1.86</v>
+      </c>
+      <c r="H13">
+        <v>5.56</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.26</v>
+      </c>
+      <c r="K13">
+        <v>0.122</v>
+      </c>
+      <c r="L13">
+        <v>0.138</v>
+      </c>
+      <c r="M13">
+        <v>0.009986327999999997</v>
+      </c>
+      <c r="N13">
+        <v>0.128013672</v>
+      </c>
+      <c r="O13">
+        <v>0.0192020508</v>
+      </c>
+      <c r="P13">
+        <v>0.1088116212</v>
+      </c>
+      <c r="Q13">
+        <v>0.2308116212</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.09886598676763593</v>
+      </c>
+      <c r="T13">
+        <v>1.091446365691379</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0.15</v>
+      </c>
+      <c r="W13">
+        <v>0.01377</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>13.81889319077043</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.08959175161685658</v>
+      </c>
+      <c r="C14">
+        <v>4.974945397000023</v>
+      </c>
+      <c r="D14">
+        <v>3.787425397000023</v>
+      </c>
+      <c r="E14">
+        <v>0.6284799999999998</v>
+      </c>
+      <c r="F14">
+        <v>0.6724799999999999</v>
+      </c>
+      <c r="G14">
+        <v>1.86</v>
+      </c>
+      <c r="H14">
+        <v>5.56</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.26</v>
+      </c>
+      <c r="K14">
+        <v>0.122</v>
+      </c>
+      <c r="L14">
+        <v>0.138</v>
+      </c>
+      <c r="M14">
+        <v>0.011970144</v>
+      </c>
+      <c r="N14">
+        <v>0.126029856</v>
+      </c>
+      <c r="O14">
+        <v>0.0189044784</v>
+      </c>
+      <c r="P14">
+        <v>0.1071253776</v>
+      </c>
+      <c r="Q14">
+        <v>0.2291253776</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.09974562683733702</v>
+      </c>
+      <c r="T14">
+        <v>1.102165612939584</v>
+      </c>
+      <c r="U14">
+        <v>0.0178</v>
+      </c>
+      <c r="V14">
+        <v>0.15</v>
+      </c>
+      <c r="W14">
+        <v>0.01513</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>11.52868336421016</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.08977157501051719</v>
+      </c>
+      <c r="C15">
+        <v>4.910441940331803</v>
+      </c>
+      <c r="D15">
+        <v>3.778961940331803</v>
+      </c>
+      <c r="E15">
+        <v>0.6845199999999999</v>
+      </c>
+      <c r="F15">
+        <v>0.7285199999999999</v>
+      </c>
+      <c r="G15">
+        <v>1.86</v>
+      </c>
+      <c r="H15">
+        <v>5.56</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.26</v>
+      </c>
+      <c r="K15">
+        <v>0.122</v>
+      </c>
+      <c r="L15">
+        <v>0.138</v>
+      </c>
+      <c r="M15">
+        <v>0.0145704</v>
+      </c>
+      <c r="N15">
+        <v>0.1234296</v>
+      </c>
+      <c r="O15">
+        <v>0.01851444</v>
+      </c>
+      <c r="P15">
+        <v>0.10491516</v>
+      </c>
+      <c r="Q15">
+        <v>0.22691516</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.1006454885178358</v>
+      </c>
+      <c r="T15">
+        <v>1.11313127966476</v>
+      </c>
+      <c r="U15">
+        <v>0.02</v>
+      </c>
+      <c r="V15">
+        <v>0.15</v>
+      </c>
+      <c r="W15">
+        <v>0.017</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>9.471256794597268</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.08972699840417778</v>
+      </c>
+      <c r="C16">
+        <v>4.856496427284297</v>
+      </c>
+      <c r="D16">
+        <v>3.781056427284296</v>
+      </c>
+      <c r="E16">
+        <v>0.7405599999999999</v>
+      </c>
+      <c r="F16">
+        <v>0.7845599999999999</v>
+      </c>
+      <c r="G16">
+        <v>1.86</v>
+      </c>
+      <c r="H16">
+        <v>5.56</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.26</v>
+      </c>
+      <c r="K16">
+        <v>0.122</v>
+      </c>
+      <c r="L16">
+        <v>0.138</v>
+      </c>
+      <c r="M16">
+        <v>0.0156912</v>
+      </c>
+      <c r="N16">
+        <v>0.1223088</v>
+      </c>
+      <c r="O16">
+        <v>0.01834632</v>
+      </c>
+      <c r="P16">
+        <v>0.10396248</v>
+      </c>
+      <c r="Q16">
+        <v>0.22596248</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.1015662772141602</v>
+      </c>
+      <c r="T16">
+        <v>1.124351961895172</v>
+      </c>
+      <c r="U16">
+        <v>0.02</v>
+      </c>
+      <c r="V16">
+        <v>0.15</v>
+      </c>
+      <c r="W16">
+        <v>0.017</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>8.794738452126037</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.08968242179783838</v>
+      </c>
+      <c r="C17">
+        <v>4.802553237260114</v>
+      </c>
+      <c r="D17">
+        <v>3.783153237260114</v>
+      </c>
+      <c r="E17">
+        <v>0.7965999999999999</v>
+      </c>
+      <c r="F17">
+        <v>0.8405999999999999</v>
+      </c>
+      <c r="G17">
+        <v>1.86</v>
+      </c>
+      <c r="H17">
+        <v>5.56</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0.26</v>
+      </c>
+      <c r="K17">
+        <v>0.122</v>
+      </c>
+      <c r="L17">
+        <v>0.138</v>
+      </c>
+      <c r="M17">
+        <v>0.016812</v>
+      </c>
+      <c r="N17">
+        <v>0.121188</v>
+      </c>
+      <c r="O17">
+        <v>0.0181782</v>
+      </c>
+      <c r="P17">
+        <v>0.1030098</v>
+      </c>
+      <c r="Q17">
+        <v>0.2250098</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.1025087315268687</v>
+      </c>
+      <c r="T17">
+        <v>1.135836660178065</v>
+      </c>
+      <c r="U17">
+        <v>0.02</v>
+      </c>
+      <c r="V17">
+        <v>0.15</v>
+      </c>
+      <c r="W17">
+        <v>0.017</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>8.208422555317632</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.089787445191499</v>
+      </c>
+      <c r="C18">
+        <v>4.741576820272721</v>
+      </c>
+      <c r="D18">
+        <v>3.77821682027272</v>
+      </c>
+      <c r="E18">
+        <v>0.8526399999999998</v>
+      </c>
+      <c r="F18">
+        <v>0.8966399999999999</v>
+      </c>
+      <c r="G18">
+        <v>1.86</v>
+      </c>
+      <c r="H18">
+        <v>5.56</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.26</v>
+      </c>
+      <c r="K18">
+        <v>0.122</v>
+      </c>
+      <c r="L18">
+        <v>0.138</v>
+      </c>
+      <c r="M18">
+        <v>0.018919104</v>
+      </c>
+      <c r="N18">
+        <v>0.119080896</v>
+      </c>
+      <c r="O18">
+        <v>0.0178621344</v>
+      </c>
+      <c r="P18">
+        <v>0.1012187616</v>
+      </c>
+      <c r="Q18">
+        <v>0.2232187616</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.103473625227975</v>
+      </c>
+      <c r="T18">
+        <v>1.147594803658169</v>
+      </c>
+      <c r="U18">
+        <v>0.0211</v>
+      </c>
+      <c r="V18">
+        <v>0.15</v>
+      </c>
+      <c r="W18">
+        <v>0.017935</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>7.294214356028701</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.0897522185851596</v>
+      </c>
+      <c r="C19">
+        <v>4.687191140799031</v>
+      </c>
+      <c r="D19">
+        <v>3.779871140799032</v>
+      </c>
+      <c r="E19">
+        <v>0.9086799999999999</v>
+      </c>
+      <c r="F19">
+        <v>0.95268</v>
+      </c>
+      <c r="G19">
+        <v>1.86</v>
+      </c>
+      <c r="H19">
+        <v>5.56</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0.26</v>
+      </c>
+      <c r="K19">
+        <v>0.122</v>
+      </c>
+      <c r="L19">
+        <v>0.138</v>
+      </c>
+      <c r="M19">
+        <v>0.020101548</v>
+      </c>
+      <c r="N19">
+        <v>0.117898452</v>
+      </c>
+      <c r="O19">
+        <v>0.0176847678</v>
+      </c>
+      <c r="P19">
+        <v>0.1002136842</v>
+      </c>
+      <c r="Q19">
+        <v>0.2222136842</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.1044617693797104</v>
+      </c>
+      <c r="T19">
+        <v>1.15963627589683</v>
+      </c>
+      <c r="U19">
+        <v>0.0211</v>
+      </c>
+      <c r="V19">
+        <v>0.15</v>
+      </c>
+      <c r="W19">
+        <v>0.017935</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>6.86514292332113</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.08971699197882022</v>
+      </c>
+      <c r="C20">
+        <v>4.632806910673208</v>
+      </c>
+      <c r="D20">
+        <v>3.781526910673209</v>
+      </c>
+      <c r="E20">
+        <v>0.9647199999999998</v>
+      </c>
+      <c r="F20">
+        <v>1.00872</v>
+      </c>
+      <c r="G20">
+        <v>1.86</v>
+      </c>
+      <c r="H20">
+        <v>5.56</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.26</v>
+      </c>
+      <c r="K20">
+        <v>0.122</v>
+      </c>
+      <c r="L20">
+        <v>0.138</v>
+      </c>
+      <c r="M20">
+        <v>0.021283992</v>
+      </c>
+      <c r="N20">
+        <v>0.116716008</v>
+      </c>
+      <c r="O20">
+        <v>0.0175074012</v>
+      </c>
+      <c r="P20">
+        <v>0.09920860680000002</v>
+      </c>
+      <c r="Q20">
+        <v>0.2212086068</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.1054740146083173</v>
+      </c>
+      <c r="T20">
+        <v>1.171971442580336</v>
+      </c>
+      <c r="U20">
+        <v>0.0211</v>
+      </c>
+      <c r="V20">
+        <v>0.15</v>
+      </c>
+      <c r="W20">
+        <v>0.017935</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>6.483746094247734</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.08992401537248083</v>
+      </c>
+      <c r="C21">
+        <v>4.56705684437783</v>
+      </c>
+      <c r="D21">
+        <v>3.771816844377829</v>
+      </c>
+      <c r="E21">
+        <v>1.02076</v>
+      </c>
+      <c r="F21">
+        <v>1.06476</v>
+      </c>
+      <c r="G21">
+        <v>1.86</v>
+      </c>
+      <c r="H21">
+        <v>5.56</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0.26</v>
+      </c>
+      <c r="K21">
+        <v>0.122</v>
+      </c>
+      <c r="L21">
+        <v>0.138</v>
+      </c>
+      <c r="M21">
+        <v>0.024063576</v>
+      </c>
+      <c r="N21">
+        <v>0.113936424</v>
+      </c>
+      <c r="O21">
+        <v>0.0170904636</v>
+      </c>
+      <c r="P21">
+        <v>0.09684596040000001</v>
+      </c>
+      <c r="Q21">
+        <v>0.2188459604</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.1065112535462726</v>
+      </c>
+      <c r="T21">
+        <v>1.184611181280719</v>
+      </c>
+      <c r="U21">
+        <v>0.0226</v>
+      </c>
+      <c r="V21">
+        <v>0.15</v>
+      </c>
+      <c r="W21">
+        <v>0.01921</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>5.734808492303888</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.08990153876614143</v>
+      </c>
+      <c r="C22">
+        <v>4.512068656088786</v>
+      </c>
+      <c r="D22">
+        <v>3.772868656088786</v>
+      </c>
+      <c r="E22">
+        <v>1.0768</v>
+      </c>
+      <c r="F22">
+        <v>1.1208</v>
+      </c>
+      <c r="G22">
+        <v>1.86</v>
+      </c>
+      <c r="H22">
+        <v>5.56</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0.26</v>
+      </c>
+      <c r="K22">
+        <v>0.122</v>
+      </c>
+      <c r="L22">
+        <v>0.138</v>
+      </c>
+      <c r="M22">
+        <v>0.02533007999999999</v>
+      </c>
+      <c r="N22">
+        <v>0.11266992</v>
+      </c>
+      <c r="O22">
+        <v>0.016900488</v>
+      </c>
+      <c r="P22">
+        <v>0.09576943200000002</v>
+      </c>
+      <c r="Q22">
+        <v>0.217769432</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.1075744234576768</v>
+      </c>
+      <c r="T22">
+        <v>1.197566913448612</v>
+      </c>
+      <c r="U22">
+        <v>0.0226</v>
+      </c>
+      <c r="V22">
+        <v>0.15</v>
+      </c>
+      <c r="W22">
+        <v>0.01921</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>5.448068067688695</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.08987906215980203</v>
+      </c>
+      <c r="C23">
+        <v>4.457081054581401</v>
+      </c>
+      <c r="D23">
+        <v>3.7739210545814</v>
+      </c>
+      <c r="E23">
+        <v>1.13284</v>
+      </c>
+      <c r="F23">
+        <v>1.17684</v>
+      </c>
+      <c r="G23">
+        <v>1.86</v>
+      </c>
+      <c r="H23">
+        <v>5.56</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.26</v>
+      </c>
+      <c r="K23">
+        <v>0.122</v>
+      </c>
+      <c r="L23">
+        <v>0.138</v>
+      </c>
+      <c r="M23">
+        <v>0.026596584</v>
+      </c>
+      <c r="N23">
+        <v>0.111403416</v>
+      </c>
+      <c r="O23">
+        <v>0.0167105124</v>
+      </c>
+      <c r="P23">
+        <v>0.09469290360000002</v>
+      </c>
+      <c r="Q23">
+        <v>0.2166929036</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.1086645090630405</v>
+      </c>
+      <c r="T23">
+        <v>1.210850638835944</v>
+      </c>
+      <c r="U23">
+        <v>0.0226</v>
+      </c>
+      <c r="V23">
+        <v>0.15</v>
+      </c>
+      <c r="W23">
+        <v>0.01921</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>5.188636254941613</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.08985658555346264</v>
+      </c>
+      <c r="C24">
+        <v>4.402094040346834</v>
+      </c>
+      <c r="D24">
+        <v>3.774974040346834</v>
+      </c>
+      <c r="E24">
+        <v>1.18888</v>
+      </c>
+      <c r="F24">
+        <v>1.23288</v>
+      </c>
+      <c r="G24">
+        <v>1.86</v>
+      </c>
+      <c r="H24">
+        <v>5.56</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0.26</v>
+      </c>
+      <c r="K24">
+        <v>0.122</v>
+      </c>
+      <c r="L24">
+        <v>0.138</v>
+      </c>
+      <c r="M24">
+        <v>0.02786308799999999</v>
+      </c>
+      <c r="N24">
+        <v>0.110136912</v>
+      </c>
+      <c r="O24">
+        <v>0.0165205368</v>
+      </c>
+      <c r="P24">
+        <v>0.09361637520000002</v>
+      </c>
+      <c r="Q24">
+        <v>0.2156163752</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.1097825455813624</v>
+      </c>
+      <c r="T24">
+        <v>1.224474972566542</v>
+      </c>
+      <c r="U24">
+        <v>0.0226</v>
+      </c>
+      <c r="V24">
+        <v>0.15</v>
+      </c>
+      <c r="W24">
+        <v>0.01921</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>4.952789152444268</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.08983410894712324</v>
+      </c>
+      <c r="C25">
+        <v>4.347107613876803</v>
+      </c>
+      <c r="D25">
+        <v>3.776027613876803</v>
+      </c>
+      <c r="E25">
+        <v>1.24492</v>
+      </c>
+      <c r="F25">
+        <v>1.28892</v>
+      </c>
+      <c r="G25">
+        <v>1.86</v>
+      </c>
+      <c r="H25">
+        <v>5.56</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0.26</v>
+      </c>
+      <c r="K25">
+        <v>0.122</v>
+      </c>
+      <c r="L25">
+        <v>0.138</v>
+      </c>
+      <c r="M25">
+        <v>0.029129592</v>
+      </c>
+      <c r="N25">
+        <v>0.108870408</v>
+      </c>
+      <c r="O25">
+        <v>0.0163305612</v>
+      </c>
+      <c r="P25">
+        <v>0.09253984680000002</v>
+      </c>
+      <c r="Q25">
+        <v>0.2145398468</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.110929622009251</v>
+      </c>
+      <c r="T25">
+        <v>1.238453185095337</v>
+      </c>
+      <c r="U25">
+        <v>0.0226</v>
+      </c>
+      <c r="V25">
+        <v>0.15</v>
+      </c>
+      <c r="W25">
+        <v>0.01921</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>4.737450493642342</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.08981163234078385</v>
+      </c>
+      <c r="C26">
+        <v>4.29212177566357</v>
+      </c>
+      <c r="D26">
+        <v>3.777081775663569</v>
+      </c>
+      <c r="E26">
+        <v>1.30096</v>
+      </c>
+      <c r="F26">
+        <v>1.34496</v>
+      </c>
+      <c r="G26">
+        <v>1.86</v>
+      </c>
+      <c r="H26">
+        <v>5.56</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0.26</v>
+      </c>
+      <c r="K26">
+        <v>0.122</v>
+      </c>
+      <c r="L26">
+        <v>0.138</v>
+      </c>
+      <c r="M26">
+        <v>0.03039609599999999</v>
+      </c>
+      <c r="N26">
+        <v>0.107603904</v>
+      </c>
+      <c r="O26">
+        <v>0.0161405856</v>
+      </c>
+      <c r="P26">
+        <v>0.09146331840000002</v>
+      </c>
+      <c r="Q26">
+        <v>0.2134633184</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.1121068846589261</v>
+      </c>
+      <c r="T26">
+        <v>1.252799245322259</v>
+      </c>
+      <c r="U26">
+        <v>0.0226</v>
+      </c>
+      <c r="V26">
+        <v>0.15</v>
+      </c>
+      <c r="W26">
+        <v>0.01921</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>4.540056723073913</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.1088356234283338</v>
+      </c>
+      <c r="C27">
+        <v>3.514177721996719</v>
+      </c>
+      <c r="D27">
+        <v>3.055177721996719</v>
+      </c>
+      <c r="E27">
+        <v>1.357</v>
+      </c>
+      <c r="F27">
+        <v>1.401</v>
+      </c>
+      <c r="G27">
+        <v>1.86</v>
+      </c>
+      <c r="H27">
+        <v>5.56</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0.26</v>
+      </c>
+      <c r="K27">
+        <v>0.122</v>
+      </c>
+      <c r="L27">
+        <v>0.138</v>
+      </c>
+      <c r="M27">
+        <v>0.152709</v>
+      </c>
+      <c r="N27">
+        <v>-0.01470899999999997</v>
+      </c>
+      <c r="O27">
+        <v>-0.002206349999999996</v>
+      </c>
+      <c r="P27">
+        <v>-0.01250264999999998</v>
+      </c>
+      <c r="Q27">
+        <v>0.10949735</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.113705884770969</v>
+      </c>
+      <c r="T27">
+        <v>1.2722845759038</v>
+      </c>
+      <c r="U27">
+        <v>0.109</v>
+      </c>
+      <c r="V27">
+        <v>0.1355519321061627</v>
+      </c>
+      <c r="W27">
+        <v>0.09422483940042826</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>0.9036795473744181</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.1098326234283338</v>
+      </c>
+      <c r="C28">
+        <v>3.427838978315748</v>
+      </c>
+      <c r="D28">
+        <v>3.024878978315748</v>
+      </c>
+      <c r="E28">
+        <v>1.41304</v>
+      </c>
+      <c r="F28">
+        <v>1.45704</v>
+      </c>
+      <c r="G28">
+        <v>1.86</v>
+      </c>
+      <c r="H28">
+        <v>5.56</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0.26</v>
+      </c>
+      <c r="K28">
+        <v>0.122</v>
+      </c>
+      <c r="L28">
+        <v>0.138</v>
+      </c>
+      <c r="M28">
+        <v>0.15881736</v>
+      </c>
+      <c r="N28">
+        <v>-0.02081735999999998</v>
+      </c>
+      <c r="O28">
+        <v>-0.003122603999999997</v>
+      </c>
+      <c r="P28">
+        <v>-0.01769475599999998</v>
+      </c>
+      <c r="Q28">
+        <v>0.104305244</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.1151167751057118</v>
+      </c>
+      <c r="T28">
+        <v>1.289477610713311</v>
+      </c>
+      <c r="U28">
+        <v>0.109</v>
+      </c>
+      <c r="V28">
+        <v>0.1303383962559257</v>
+      </c>
+      <c r="W28">
+        <v>0.0947931148081041</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>0.8689226417061713</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.1108296234283338</v>
+      </c>
+      <c r="C29">
+        <v>3.342095289485368</v>
+      </c>
+      <c r="D29">
+        <v>2.995175289485368</v>
+      </c>
+      <c r="E29">
+        <v>1.46908</v>
+      </c>
+      <c r="F29">
+        <v>1.51308</v>
+      </c>
+      <c r="G29">
+        <v>1.86</v>
+      </c>
+      <c r="H29">
+        <v>5.56</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0.26</v>
+      </c>
+      <c r="K29">
+        <v>0.122</v>
+      </c>
+      <c r="L29">
+        <v>0.138</v>
+      </c>
+      <c r="M29">
+        <v>0.16492572</v>
+      </c>
+      <c r="N29">
+        <v>-0.02692571999999999</v>
+      </c>
+      <c r="O29">
+        <v>-0.004038857999999998</v>
+      </c>
+      <c r="P29">
+        <v>-0.02288686199999999</v>
+      </c>
+      <c r="Q29">
+        <v>0.09911313800000002</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.1165663199701737</v>
+      </c>
+      <c r="T29">
+        <v>1.307141687572398</v>
+      </c>
+      <c r="U29">
+        <v>0.109</v>
+      </c>
+      <c r="V29">
+        <v>0.125511048246447</v>
+      </c>
+      <c r="W29">
+        <v>0.09531929574113727</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>0.8367403216429797</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.1118266234283338</v>
+      </c>
+      <c r="C30">
+        <v>3.256929296023736</v>
+      </c>
+      <c r="D30">
+        <v>2.966049296023736</v>
+      </c>
+      <c r="E30">
+        <v>1.52512</v>
+      </c>
+      <c r="F30">
+        <v>1.56912</v>
+      </c>
+      <c r="G30">
+        <v>1.86</v>
+      </c>
+      <c r="H30">
+        <v>5.56</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0.26</v>
+      </c>
+      <c r="K30">
+        <v>0.122</v>
+      </c>
+      <c r="L30">
+        <v>0.138</v>
+      </c>
+      <c r="M30">
+        <v>0.17103408</v>
+      </c>
+      <c r="N30">
+        <v>-0.03303407999999997</v>
+      </c>
+      <c r="O30">
+        <v>-0.004955111999999995</v>
+      </c>
+      <c r="P30">
+        <v>-0.02807896799999997</v>
+      </c>
+      <c r="Q30">
+        <v>0.09392103200000003</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.1180561299697594</v>
+      </c>
+      <c r="T30">
+        <v>1.325296433233125</v>
+      </c>
+      <c r="U30">
+        <v>0.109</v>
+      </c>
+      <c r="V30">
+        <v>0.1210285108090739</v>
+      </c>
+      <c r="W30">
+        <v>0.09580789232181094</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>0.8068567387271591</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.1224828624313204</v>
+      </c>
+      <c r="C31">
+        <v>2.921633854748356</v>
+      </c>
+      <c r="D31">
+        <v>2.686793854748356</v>
+      </c>
+      <c r="E31">
+        <v>1.58116</v>
+      </c>
+      <c r="F31">
+        <v>1.62516</v>
+      </c>
+      <c r="G31">
+        <v>1.86</v>
+      </c>
+      <c r="H31">
+        <v>5.56</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0.26</v>
+      </c>
+      <c r="K31">
+        <v>0.122</v>
+      </c>
+      <c r="L31">
+        <v>0.138</v>
+      </c>
+      <c r="M31">
+        <v>0.2278474319999999</v>
+      </c>
+      <c r="N31">
+        <v>-0.08984743199999992</v>
+      </c>
+      <c r="O31">
+        <v>-0.01347711479999999</v>
+      </c>
+      <c r="P31">
+        <v>-0.07637031719999993</v>
+      </c>
+      <c r="Q31">
+        <v>0.04562968280000007</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.1204488064524132</v>
+      </c>
+      <c r="T31">
+        <v>1.354453461983813</v>
+      </c>
+      <c r="U31">
+        <v>0.1402</v>
+      </c>
+      <c r="V31">
+        <v>0.09085026685751722</v>
+      </c>
+      <c r="W31">
+        <v>0.1274627925865761</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>0.6056684457167815</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.1237918624313204</v>
+      </c>
+      <c r="C32">
+        <v>2.834875399469709</v>
+      </c>
+      <c r="D32">
+        <v>2.656075399469708</v>
+      </c>
+      <c r="E32">
+        <v>1.6372</v>
+      </c>
+      <c r="F32">
+        <v>1.6812</v>
+      </c>
+      <c r="G32">
+        <v>1.86</v>
+      </c>
+      <c r="H32">
+        <v>5.56</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0.26</v>
+      </c>
+      <c r="K32">
+        <v>0.122</v>
+      </c>
+      <c r="L32">
+        <v>0.138</v>
+      </c>
+      <c r="M32">
+        <v>0.23570424</v>
+      </c>
+      <c r="N32">
+        <v>-0.09770423999999994</v>
+      </c>
+      <c r="O32">
+        <v>-0.01465563599999999</v>
+      </c>
+      <c r="P32">
+        <v>-0.08304860399999996</v>
+      </c>
+      <c r="Q32">
+        <v>0.03895139600000004</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.1220366465445905</v>
+      </c>
+      <c r="T32">
+        <v>1.37380279715501</v>
+      </c>
+      <c r="U32">
+        <v>0.1402</v>
+      </c>
+      <c r="V32">
+        <v>0.08782192462893329</v>
+      </c>
+      <c r="W32">
+        <v>0.1278873661670235</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>0.5854794975262221</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.1251008624313204</v>
+      </c>
+      <c r="C33">
+        <v>2.748811420158087</v>
+      </c>
+      <c r="D33">
+        <v>2.626051420158087</v>
+      </c>
+      <c r="E33">
+        <v>1.69324</v>
+      </c>
+      <c r="F33">
+        <v>1.73724</v>
+      </c>
+      <c r="G33">
+        <v>1.86</v>
+      </c>
+      <c r="H33">
+        <v>5.56</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0.26</v>
+      </c>
+      <c r="K33">
+        <v>0.122</v>
+      </c>
+      <c r="L33">
+        <v>0.138</v>
+      </c>
+      <c r="M33">
+        <v>0.2435610479999999</v>
+      </c>
+      <c r="N33">
+        <v>-0.1055610479999999</v>
+      </c>
+      <c r="O33">
+        <v>-0.01583415719999999</v>
+      </c>
+      <c r="P33">
+        <v>-0.08972689079999994</v>
+      </c>
+      <c r="Q33">
+        <v>0.03227310920000005</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.1236705109872657</v>
+      </c>
+      <c r="T33">
+        <v>1.393712982621025</v>
+      </c>
+      <c r="U33">
+        <v>0.1402</v>
+      </c>
+      <c r="V33">
+        <v>0.08498895931832255</v>
+      </c>
+      <c r="W33">
+        <v>0.1282845479035712</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>0.5665930621221503</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.1264098624313204</v>
+      </c>
+      <c r="C34">
+        <v>2.663418629217846</v>
+      </c>
+      <c r="D34">
+        <v>2.596698629217846</v>
+      </c>
+      <c r="E34">
+        <v>1.74928</v>
+      </c>
+      <c r="F34">
+        <v>1.79328</v>
+      </c>
+      <c r="G34">
+        <v>1.86</v>
+      </c>
+      <c r="H34">
+        <v>5.56</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0.26</v>
+      </c>
+      <c r="K34">
+        <v>0.122</v>
+      </c>
+      <c r="L34">
+        <v>0.138</v>
+      </c>
+      <c r="M34">
+        <v>0.2514178559999999</v>
+      </c>
+      <c r="N34">
+        <v>-0.1134178559999999</v>
+      </c>
+      <c r="O34">
+        <v>-0.01701267839999999</v>
+      </c>
+      <c r="P34">
+        <v>-0.09640517759999995</v>
+      </c>
+      <c r="Q34">
+        <v>0.02559482240000005</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.1253524302664902</v>
+      </c>
+      <c r="T34">
+        <v>1.414208761777217</v>
+      </c>
+      <c r="U34">
+        <v>0.1402</v>
+      </c>
+      <c r="V34">
+        <v>0.08233305433962497</v>
+      </c>
+      <c r="W34">
+        <v>0.1286569057815846</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>0.5488870289308332</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
         <v>0.33</v>
       </c>
-      <c r="L3">
-        <v>0.06457925636007827</v>
-      </c>
-      <c r="M3">
-        <v>0.273</v>
-      </c>
-      <c r="N3">
-        <v>0.04550000000000001</v>
-      </c>
-      <c r="O3">
-        <v>0.8272727272727273</v>
-      </c>
-      <c r="P3">
-        <v>0.273</v>
-      </c>
-      <c r="Q3">
-        <v>0.04550000000000001</v>
-      </c>
-      <c r="R3">
-        <v>0.8272727272727273</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>1.49</v>
-      </c>
-      <c r="V3">
-        <v>0.2483333333333333</v>
-      </c>
-      <c r="W3">
-        <v>0.04615384615384616</v>
-      </c>
-      <c r="X3">
-        <v>0.09516884794261977</v>
-      </c>
-      <c r="Y3">
-        <v>-0.04901500178877362</v>
-      </c>
-      <c r="Z3">
-        <v>1.104472118672766</v>
-      </c>
-      <c r="AA3">
-        <v>0.00149538123403899</v>
-      </c>
-      <c r="AB3">
-        <v>0.09467330472523293</v>
-      </c>
-      <c r="AC3">
-        <v>-0.09317792349119394</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0.0666446328592149</v>
-      </c>
-      <c r="AF3">
-        <v>0.0666446328592149</v>
-      </c>
-      <c r="AG3">
-        <v>-1.423355367140785</v>
-      </c>
-      <c r="AH3">
-        <v>0.01098541894117923</v>
-      </c>
-      <c r="AI3">
-        <v>0.009377791672749195</v>
-      </c>
-      <c r="AJ3">
-        <v>-0.3110041266742525</v>
-      </c>
-      <c r="AK3">
-        <v>-0.2534173799805117</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>-0.068</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>-16.17449280841801</v>
-      </c>
-      <c r="AQ3">
-        <v>-0.1176470588235294</v>
+      <c r="B35">
+        <v>0.1277188624313204</v>
+      </c>
+      <c r="C35">
+        <v>2.578674768736012</v>
+      </c>
+      <c r="D35">
+        <v>2.567994768736012</v>
+      </c>
+      <c r="E35">
+        <v>1.80532</v>
+      </c>
+      <c r="F35">
+        <v>1.84932</v>
+      </c>
+      <c r="G35">
+        <v>1.86</v>
+      </c>
+      <c r="H35">
+        <v>5.56</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0.26</v>
+      </c>
+      <c r="K35">
+        <v>0.122</v>
+      </c>
+      <c r="L35">
+        <v>0.138</v>
+      </c>
+      <c r="M35">
+        <v>0.259274664</v>
+      </c>
+      <c r="N35">
+        <v>-0.121274664</v>
+      </c>
+      <c r="O35">
+        <v>-0.0181911996</v>
+      </c>
+      <c r="P35">
+        <v>-0.1030834644</v>
+      </c>
+      <c r="Q35">
+        <v>0.01891653560000002</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.1270845560913632</v>
+      </c>
+      <c r="T35">
+        <v>1.435316355236578</v>
+      </c>
+      <c r="U35">
+        <v>0.1402</v>
+      </c>
+      <c r="V35">
+        <v>0.07983811329903026</v>
+      </c>
+      <c r="W35">
+        <v>0.1290066965154759</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>0.5322540886602017</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.1290278624313204</v>
+      </c>
+      <c r="C36">
+        <v>2.494558554194023</v>
+      </c>
+      <c r="D36">
+        <v>2.539918554194023</v>
+      </c>
+      <c r="E36">
+        <v>1.86136</v>
+      </c>
+      <c r="F36">
+        <v>1.90536</v>
+      </c>
+      <c r="G36">
+        <v>1.86</v>
+      </c>
+      <c r="H36">
+        <v>5.56</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0.26</v>
+      </c>
+      <c r="K36">
+        <v>0.122</v>
+      </c>
+      <c r="L36">
+        <v>0.138</v>
+      </c>
+      <c r="M36">
+        <v>0.267131472</v>
+      </c>
+      <c r="N36">
+        <v>-0.129131472</v>
+      </c>
+      <c r="O36">
+        <v>-0.01936972079999999</v>
+      </c>
+      <c r="P36">
+        <v>-0.1097617512</v>
+      </c>
+      <c r="Q36">
+        <v>0.01223824880000002</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.128869170577596</v>
+      </c>
+      <c r="T36">
+        <v>1.457063572740163</v>
+      </c>
+      <c r="U36">
+        <v>0.1402</v>
+      </c>
+      <c r="V36">
+        <v>0.0774899334961176</v>
+      </c>
+      <c r="W36">
+        <v>0.1293359113238443</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>0.5165995566407841</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.1303368624313204</v>
+      </c>
+      <c r="C37">
+        <v>2.411049621831979</v>
+      </c>
+      <c r="D37">
+        <v>2.512449621831979</v>
+      </c>
+      <c r="E37">
+        <v>1.9174</v>
+      </c>
+      <c r="F37">
+        <v>1.9614</v>
+      </c>
+      <c r="G37">
+        <v>1.86</v>
+      </c>
+      <c r="H37">
+        <v>5.56</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0.26</v>
+      </c>
+      <c r="K37">
+        <v>0.122</v>
+      </c>
+      <c r="L37">
+        <v>0.138</v>
+      </c>
+      <c r="M37">
+        <v>0.27498828</v>
+      </c>
+      <c r="N37">
+        <v>-0.13698828</v>
+      </c>
+      <c r="O37">
+        <v>-0.02054824199999999</v>
+      </c>
+      <c r="P37">
+        <v>-0.116440038</v>
+      </c>
+      <c r="Q37">
+        <v>0.005559962000000029</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.1307086962787898</v>
+      </c>
+      <c r="T37">
+        <v>1.479479935397704</v>
+      </c>
+      <c r="U37">
+        <v>0.1402</v>
+      </c>
+      <c r="V37">
+        <v>0.07527593539622854</v>
+      </c>
+      <c r="W37">
+        <v>0.1296463138574487</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>0.5018395693081903</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.1478115276276168</v>
+      </c>
+      <c r="C38">
+        <v>2.038038054800316</v>
+      </c>
+      <c r="D38">
+        <v>2.195478054800315</v>
+      </c>
+      <c r="E38">
+        <v>1.97344</v>
+      </c>
+      <c r="F38">
+        <v>2.01744</v>
+      </c>
+      <c r="G38">
+        <v>1.86</v>
+      </c>
+      <c r="H38">
+        <v>5.56</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0.26</v>
+      </c>
+      <c r="K38">
+        <v>0.122</v>
+      </c>
+      <c r="L38">
+        <v>0.138</v>
+      </c>
+      <c r="M38">
+        <v>0.370603728</v>
+      </c>
+      <c r="N38">
+        <v>-0.232603728</v>
+      </c>
+      <c r="O38">
+        <v>-0.03489055919999999</v>
+      </c>
+      <c r="P38">
+        <v>-0.1977131687999999</v>
+      </c>
+      <c r="Q38">
+        <v>-0.07571316879999995</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.133395809027359</v>
+      </c>
+      <c r="T38">
+        <v>1.512224948872937</v>
+      </c>
+      <c r="U38">
+        <v>0.1837</v>
+      </c>
+      <c r="V38">
+        <v>0.0558548078070062</v>
+      </c>
+      <c r="W38">
+        <v>0.173439471805853</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>0.3723653853800414</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1495555276276168</v>
+      </c>
+      <c r="C39">
+        <v>1.954698498110203</v>
+      </c>
+      <c r="D39">
+        <v>2.168178498110203</v>
+      </c>
+      <c r="E39">
+        <v>2.02948</v>
+      </c>
+      <c r="F39">
+        <v>2.07348</v>
+      </c>
+      <c r="G39">
+        <v>1.86</v>
+      </c>
+      <c r="H39">
+        <v>5.56</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0.26</v>
+      </c>
+      <c r="K39">
+        <v>0.122</v>
+      </c>
+      <c r="L39">
+        <v>0.138</v>
+      </c>
+      <c r="M39">
+        <v>0.3808982759999999</v>
+      </c>
+      <c r="N39">
+        <v>-0.2428982759999999</v>
+      </c>
+      <c r="O39">
+        <v>-0.03643474139999998</v>
+      </c>
+      <c r="P39">
+        <v>-0.2064635345999999</v>
+      </c>
+      <c r="Q39">
+        <v>-0.08446353459999995</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.135365583773825</v>
+      </c>
+      <c r="T39">
+        <v>1.536228519489967</v>
+      </c>
+      <c r="U39">
+        <v>0.1837</v>
+      </c>
+      <c r="V39">
+        <v>0.05434521840681685</v>
+      </c>
+      <c r="W39">
+        <v>0.1737167833786677</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>0.3623014560454457</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1512995276276168</v>
+      </c>
+      <c r="C40">
+        <v>1.872029513043292</v>
+      </c>
+      <c r="D40">
+        <v>2.141549513043292</v>
+      </c>
+      <c r="E40">
+        <v>2.08552</v>
+      </c>
+      <c r="F40">
+        <v>2.12952</v>
+      </c>
+      <c r="G40">
+        <v>1.86</v>
+      </c>
+      <c r="H40">
+        <v>5.56</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0.26</v>
+      </c>
+      <c r="K40">
+        <v>0.122</v>
+      </c>
+      <c r="L40">
+        <v>0.138</v>
+      </c>
+      <c r="M40">
+        <v>0.391192824</v>
+      </c>
+      <c r="N40">
+        <v>-0.253192824</v>
+      </c>
+      <c r="O40">
+        <v>-0.0379789236</v>
+      </c>
+      <c r="P40">
+        <v>-0.2152139004</v>
+      </c>
+      <c r="Q40">
+        <v>-0.09321390039999999</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.1373988996411447</v>
+      </c>
+      <c r="T40">
+        <v>1.56100639883658</v>
+      </c>
+      <c r="U40">
+        <v>0.1837</v>
+      </c>
+      <c r="V40">
+        <v>0.05291508108032166</v>
+      </c>
+      <c r="W40">
+        <v>0.1739794996055449</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.3527672072021444</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1530435276276168</v>
+      </c>
+      <c r="C41">
+        <v>1.790006692025965</v>
+      </c>
+      <c r="D41">
+        <v>2.115566692025965</v>
+      </c>
+      <c r="E41">
+        <v>2.14156</v>
+      </c>
+      <c r="F41">
+        <v>2.18556</v>
+      </c>
+      <c r="G41">
+        <v>1.86</v>
+      </c>
+      <c r="H41">
+        <v>5.56</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0.26</v>
+      </c>
+      <c r="K41">
+        <v>0.122</v>
+      </c>
+      <c r="L41">
+        <v>0.138</v>
+      </c>
+      <c r="M41">
+        <v>0.401487372</v>
+      </c>
+      <c r="N41">
+        <v>-0.2634873719999999</v>
+      </c>
+      <c r="O41">
+        <v>-0.03952310579999999</v>
+      </c>
+      <c r="P41">
+        <v>-0.2239642662</v>
+      </c>
+      <c r="Q41">
+        <v>-0.1019642662</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.139498881602475</v>
+      </c>
+      <c r="T41">
+        <v>1.586596667669966</v>
+      </c>
+      <c r="U41">
+        <v>0.1837</v>
+      </c>
+      <c r="V41">
+        <v>0.05155828412954418</v>
+      </c>
+      <c r="W41">
+        <v>0.1742287432054027</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.3437218941969613</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1547875276276168</v>
+      </c>
+      <c r="C42">
+        <v>1.708606797806464</v>
+      </c>
+      <c r="D42">
+        <v>2.090206797806463</v>
+      </c>
+      <c r="E42">
+        <v>2.1976</v>
+      </c>
+      <c r="F42">
+        <v>2.2416</v>
+      </c>
+      <c r="G42">
+        <v>1.86</v>
+      </c>
+      <c r="H42">
+        <v>5.56</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0.26</v>
+      </c>
+      <c r="K42">
+        <v>0.122</v>
+      </c>
+      <c r="L42">
+        <v>0.138</v>
+      </c>
+      <c r="M42">
+        <v>0.4117819199999999</v>
+      </c>
+      <c r="N42">
+        <v>-0.2737819199999999</v>
+      </c>
+      <c r="O42">
+        <v>-0.04106728799999999</v>
+      </c>
+      <c r="P42">
+        <v>-0.2327146319999999</v>
+      </c>
+      <c r="Q42">
+        <v>-0.1107146319999999</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.1416688629625162</v>
+      </c>
+      <c r="T42">
+        <v>1.613039945464466</v>
+      </c>
+      <c r="U42">
+        <v>0.1837</v>
+      </c>
+      <c r="V42">
+        <v>0.05026932702630559</v>
+      </c>
+      <c r="W42">
+        <v>0.1744655246252677</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.3351288468420373</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1565315276276168</v>
+      </c>
+      <c r="C43">
+        <v>1.627807694140879</v>
+      </c>
+      <c r="D43">
+        <v>2.065447694140879</v>
+      </c>
+      <c r="E43">
+        <v>2.25364</v>
+      </c>
+      <c r="F43">
+        <v>2.29764</v>
+      </c>
+      <c r="G43">
+        <v>1.86</v>
+      </c>
+      <c r="H43">
+        <v>5.56</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0.26</v>
+      </c>
+      <c r="K43">
+        <v>0.122</v>
+      </c>
+      <c r="L43">
+        <v>0.138</v>
+      </c>
+      <c r="M43">
+        <v>0.422076468</v>
+      </c>
+      <c r="N43">
+        <v>-0.284076468</v>
+      </c>
+      <c r="O43">
+        <v>-0.04261147019999999</v>
+      </c>
+      <c r="P43">
+        <v>-0.2414649978</v>
+      </c>
+      <c r="Q43">
+        <v>-0.1194649978</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.1439124030127284</v>
+      </c>
+      <c r="T43">
+        <v>1.640379605557084</v>
+      </c>
+      <c r="U43">
+        <v>0.1837</v>
+      </c>
+      <c r="V43">
+        <v>0.04904324587932252</v>
+      </c>
+      <c r="W43">
+        <v>0.1746907557319685</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.3269549725288168</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1582755276276168</v>
+      </c>
+      <c r="C44">
+        <v>1.547588281347755</v>
+      </c>
+      <c r="D44">
+        <v>2.041268281347755</v>
+      </c>
+      <c r="E44">
+        <v>2.30968</v>
+      </c>
+      <c r="F44">
+        <v>2.35368</v>
+      </c>
+      <c r="G44">
+        <v>1.86</v>
+      </c>
+      <c r="H44">
+        <v>5.56</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0.26</v>
+      </c>
+      <c r="K44">
+        <v>0.122</v>
+      </c>
+      <c r="L44">
+        <v>0.138</v>
+      </c>
+      <c r="M44">
+        <v>0.4323710159999999</v>
+      </c>
+      <c r="N44">
+        <v>-0.2943710159999999</v>
+      </c>
+      <c r="O44">
+        <v>-0.04415565239999999</v>
+      </c>
+      <c r="P44">
+        <v>-0.2502153636</v>
+      </c>
+      <c r="Q44">
+        <v>-0.1282153636</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.1462333065129478</v>
+      </c>
+      <c r="T44">
+        <v>1.668662012549447</v>
+      </c>
+      <c r="U44">
+        <v>0.1837</v>
+      </c>
+      <c r="V44">
+        <v>0.04787554954886247</v>
+      </c>
+      <c r="W44">
+        <v>0.174905261547874</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.3191703303257497</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1600195276276168</v>
+      </c>
+      <c r="C45">
+        <v>1.46792843633692</v>
+      </c>
+      <c r="D45">
+        <v>2.01764843633692</v>
+      </c>
+      <c r="E45">
+        <v>2.36572</v>
+      </c>
+      <c r="F45">
+        <v>2.40972</v>
+      </c>
+      <c r="G45">
+        <v>1.86</v>
+      </c>
+      <c r="H45">
+        <v>5.56</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0.26</v>
+      </c>
+      <c r="K45">
+        <v>0.122</v>
+      </c>
+      <c r="L45">
+        <v>0.138</v>
+      </c>
+      <c r="M45">
+        <v>0.442665564</v>
+      </c>
+      <c r="N45">
+        <v>-0.3046655639999999</v>
+      </c>
+      <c r="O45">
+        <v>-0.04569983459999999</v>
+      </c>
+      <c r="P45">
+        <v>-0.2589657294</v>
+      </c>
+      <c r="Q45">
+        <v>-0.1369657294</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1486356452237013</v>
+      </c>
+      <c r="T45">
+        <v>1.697936784699438</v>
+      </c>
+      <c r="U45">
+        <v>0.1837</v>
+      </c>
+      <c r="V45">
+        <v>0.04676216467563309</v>
+      </c>
+      <c r="W45">
+        <v>0.1751097903490862</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.3117477645042207</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1617635276276168</v>
+      </c>
+      <c r="C46">
+        <v>1.388808956754328</v>
+      </c>
+      <c r="D46">
+        <v>1.994568956754327</v>
+      </c>
+      <c r="E46">
+        <v>2.421759999999999</v>
+      </c>
+      <c r="F46">
+        <v>2.46576</v>
+      </c>
+      <c r="G46">
+        <v>1.86</v>
+      </c>
+      <c r="H46">
+        <v>5.56</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0.26</v>
+      </c>
+      <c r="K46">
+        <v>0.122</v>
+      </c>
+      <c r="L46">
+        <v>0.138</v>
+      </c>
+      <c r="M46">
+        <v>0.4529601119999999</v>
+      </c>
+      <c r="N46">
+        <v>-0.3149601119999999</v>
+      </c>
+      <c r="O46">
+        <v>-0.04724401679999998</v>
+      </c>
+      <c r="P46">
+        <v>-0.2677160951999999</v>
+      </c>
+      <c r="Q46">
+        <v>-0.1457160952</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.1511237817455531</v>
+      </c>
+      <c r="T46">
+        <v>1.728257084426214</v>
+      </c>
+      <c r="U46">
+        <v>0.1837</v>
+      </c>
+      <c r="V46">
+        <v>0.04569938820573235</v>
+      </c>
+      <c r="W46">
+        <v>0.175305022386607</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.3046625880382157</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1635075276276168</v>
+      </c>
+      <c r="C47">
+        <v>1.310211508917024</v>
+      </c>
+      <c r="D47">
+        <v>1.972011508917024</v>
+      </c>
+      <c r="E47">
+        <v>2.4778</v>
+      </c>
+      <c r="F47">
+        <v>2.5218</v>
+      </c>
+      <c r="G47">
+        <v>1.86</v>
+      </c>
+      <c r="H47">
+        <v>5.56</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0.26</v>
+      </c>
+      <c r="K47">
+        <v>0.122</v>
+      </c>
+      <c r="L47">
+        <v>0.138</v>
+      </c>
+      <c r="M47">
+        <v>0.46325466</v>
+      </c>
+      <c r="N47">
+        <v>-0.32525466</v>
+      </c>
+      <c r="O47">
+        <v>-0.048788199</v>
+      </c>
+      <c r="P47">
+        <v>-0.276466461</v>
+      </c>
+      <c r="Q47">
+        <v>-0.154466461</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.1537023959591086</v>
+      </c>
+      <c r="T47">
+        <v>1.75967994050669</v>
+      </c>
+      <c r="U47">
+        <v>0.1837</v>
+      </c>
+      <c r="V47">
+        <v>0.04468384624560496</v>
+      </c>
+      <c r="W47">
+        <v>0.1754915774446824</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.297892308304033</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1652515276276168</v>
+      </c>
+      <c r="C48">
+        <v>1.232118579241571</v>
+      </c>
+      <c r="D48">
+        <v>1.949958579241571</v>
+      </c>
+      <c r="E48">
+        <v>2.53384</v>
+      </c>
+      <c r="F48">
+        <v>2.57784</v>
+      </c>
+      <c r="G48">
+        <v>1.86</v>
+      </c>
+      <c r="H48">
+        <v>5.56</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0.26</v>
+      </c>
+      <c r="K48">
+        <v>0.122</v>
+      </c>
+      <c r="L48">
+        <v>0.138</v>
+      </c>
+      <c r="M48">
+        <v>0.4735492079999999</v>
+      </c>
+      <c r="N48">
+        <v>-0.3355492079999999</v>
+      </c>
+      <c r="O48">
+        <v>-0.05033238119999999</v>
+      </c>
+      <c r="P48">
+        <v>-0.2852168267999999</v>
+      </c>
+      <c r="Q48">
+        <v>-0.1632168267999999</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.1563765144027958</v>
+      </c>
+      <c r="T48">
+        <v>1.792266606071629</v>
+      </c>
+      <c r="U48">
+        <v>0.1837</v>
+      </c>
+      <c r="V48">
+        <v>0.04371245828374399</v>
+      </c>
+      <c r="W48">
+        <v>0.1756700214132762</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.2914163885582932</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1669955276276168</v>
+      </c>
+      <c r="C49">
+        <v>1.154513428895469</v>
+      </c>
+      <c r="D49">
+        <v>1.928393428895469</v>
+      </c>
+      <c r="E49">
+        <v>2.58988</v>
+      </c>
+      <c r="F49">
+        <v>2.63388</v>
+      </c>
+      <c r="G49">
+        <v>1.86</v>
+      </c>
+      <c r="H49">
+        <v>5.56</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0.26</v>
+      </c>
+      <c r="K49">
+        <v>0.122</v>
+      </c>
+      <c r="L49">
+        <v>0.138</v>
+      </c>
+      <c r="M49">
+        <v>0.483843756</v>
+      </c>
+      <c r="N49">
+        <v>-0.345843756</v>
+      </c>
+      <c r="O49">
+        <v>-0.0518765634</v>
+      </c>
+      <c r="P49">
+        <v>-0.2939671926</v>
+      </c>
+      <c r="Q49">
+        <v>-0.1719671926</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1591515429764335</v>
+      </c>
+      <c r="T49">
+        <v>1.826082957129584</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>0.04278240597983453</v>
+      </c>
+      <c r="W49">
+        <v>0.1758408720215044</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.2852160398655635</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1687395276276168</v>
+      </c>
+      <c r="C50">
+        <v>1.077380051424806</v>
+      </c>
+      <c r="D50">
+        <v>1.907300051424806</v>
+      </c>
+      <c r="E50">
+        <v>2.645919999999999</v>
+      </c>
+      <c r="F50">
+        <v>2.689919999999999</v>
+      </c>
+      <c r="G50">
+        <v>1.86</v>
+      </c>
+      <c r="H50">
+        <v>5.56</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0.26</v>
+      </c>
+      <c r="K50">
+        <v>0.122</v>
+      </c>
+      <c r="L50">
+        <v>0.138</v>
+      </c>
+      <c r="M50">
+        <v>0.4941383039999999</v>
+      </c>
+      <c r="N50">
+        <v>-0.3561383039999999</v>
+      </c>
+      <c r="O50">
+        <v>-0.05342074559999999</v>
+      </c>
+      <c r="P50">
+        <v>-0.3027175583999999</v>
+      </c>
+      <c r="Q50">
+        <v>-0.1807175583999999</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1620333034182879</v>
+      </c>
+      <c r="T50">
+        <v>1.861199937074383</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>0.04189110585525466</v>
+      </c>
+      <c r="W50">
+        <v>0.1760046038543897</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.279274039035031</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1704835276276168</v>
+      </c>
+      <c r="C51">
+        <v>1.000703133132698</v>
+      </c>
+      <c r="D51">
+        <v>1.886663133132697</v>
+      </c>
+      <c r="E51">
+        <v>2.70196</v>
+      </c>
+      <c r="F51">
+        <v>2.74596</v>
+      </c>
+      <c r="G51">
+        <v>1.86</v>
+      </c>
+      <c r="H51">
+        <v>5.56</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0.26</v>
+      </c>
+      <c r="K51">
+        <v>0.122</v>
+      </c>
+      <c r="L51">
+        <v>0.138</v>
+      </c>
+      <c r="M51">
+        <v>0.504432852</v>
+      </c>
+      <c r="N51">
+        <v>-0.366432852</v>
+      </c>
+      <c r="O51">
+        <v>-0.05496492779999999</v>
+      </c>
+      <c r="P51">
+        <v>-0.3114679242</v>
+      </c>
+      <c r="Q51">
+        <v>-0.1894679242</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1650280740735485</v>
+      </c>
+      <c r="T51">
+        <v>1.897694053487607</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>0.04103618532759639</v>
+      </c>
+      <c r="W51">
+        <v>0.1761616527553206</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.2735745688506426</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1722275276276168</v>
+      </c>
+      <c r="C52">
+        <v>0.9244680160024381</v>
+      </c>
+      <c r="D52">
+        <v>1.866468016002438</v>
+      </c>
+      <c r="E52">
+        <v>2.758</v>
+      </c>
+      <c r="F52">
+        <v>2.802</v>
+      </c>
+      <c r="G52">
+        <v>1.86</v>
+      </c>
+      <c r="H52">
+        <v>5.56</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0.26</v>
+      </c>
+      <c r="K52">
+        <v>0.122</v>
+      </c>
+      <c r="L52">
+        <v>0.138</v>
+      </c>
+      <c r="M52">
+        <v>0.5147273999999999</v>
+      </c>
+      <c r="N52">
+        <v>-0.3767273999999999</v>
+      </c>
+      <c r="O52">
+        <v>-0.05650910999999999</v>
+      </c>
+      <c r="P52">
+        <v>-0.32021829</v>
+      </c>
+      <c r="Q52">
+        <v>-0.19821829</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1681426355550195</v>
+      </c>
+      <c r="T52">
+        <v>1.935647934557359</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>0.04021546162104447</v>
+      </c>
+      <c r="W52">
+        <v>0.1763124197002141</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.2681030774736298</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1739715276276168</v>
+      </c>
+      <c r="C53">
+        <v>0.8486606629766658</v>
+      </c>
+      <c r="D53">
+        <v>1.846700662976665</v>
+      </c>
+      <c r="E53">
+        <v>2.814039999999999</v>
+      </c>
+      <c r="F53">
+        <v>2.858039999999999</v>
+      </c>
+      <c r="G53">
+        <v>1.86</v>
+      </c>
+      <c r="H53">
+        <v>5.56</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0.26</v>
+      </c>
+      <c r="K53">
+        <v>0.122</v>
+      </c>
+      <c r="L53">
+        <v>0.138</v>
+      </c>
+      <c r="M53">
+        <v>0.5250219479999999</v>
+      </c>
+      <c r="N53">
+        <v>-0.3870219479999999</v>
+      </c>
+      <c r="O53">
+        <v>-0.05805329219999998</v>
+      </c>
+      <c r="P53">
+        <v>-0.3289686557999999</v>
+      </c>
+      <c r="Q53">
+        <v>-0.2069686557999999</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1713843219949178</v>
+      </c>
+      <c r="T53">
+        <v>1.975150953629958</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>0.03942692315788673</v>
+      </c>
+      <c r="W53">
+        <v>0.1764572742158962</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.2628461543859115</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1757155276276168</v>
+      </c>
+      <c r="C54">
+        <v>0.7732676254197499</v>
+      </c>
+      <c r="D54">
+        <v>1.827347625419749</v>
+      </c>
+      <c r="E54">
+        <v>2.87008</v>
+      </c>
+      <c r="F54">
+        <v>2.91408</v>
+      </c>
+      <c r="G54">
+        <v>1.86</v>
+      </c>
+      <c r="H54">
+        <v>5.56</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0.26</v>
+      </c>
+      <c r="K54">
+        <v>0.122</v>
+      </c>
+      <c r="L54">
+        <v>0.138</v>
+      </c>
+      <c r="M54">
+        <v>0.535316496</v>
+      </c>
+      <c r="N54">
+        <v>-0.397316496</v>
+      </c>
+      <c r="O54">
+        <v>-0.05959747439999999</v>
+      </c>
+      <c r="P54">
+        <v>-0.3377190216</v>
+      </c>
+      <c r="Q54">
+        <v>-0.2157190216</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1747610787031453</v>
+      </c>
+      <c r="T54">
+        <v>2.016299931830583</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>0.03866871309715814</v>
+      </c>
+      <c r="W54">
+        <v>0.1765965574040521</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.257791420647721</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1774595276276168</v>
+      </c>
+      <c r="C55">
+        <v>0.6982760126048677</v>
+      </c>
+      <c r="D55">
+        <v>1.808396012604867</v>
+      </c>
+      <c r="E55">
+        <v>2.92612</v>
+      </c>
+      <c r="F55">
+        <v>2.97012</v>
+      </c>
+      <c r="G55">
+        <v>1.86</v>
+      </c>
+      <c r="H55">
+        <v>5.56</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0.26</v>
+      </c>
+      <c r="K55">
+        <v>0.122</v>
+      </c>
+      <c r="L55">
+        <v>0.138</v>
+      </c>
+      <c r="M55">
+        <v>0.5456110439999999</v>
+      </c>
+      <c r="N55">
+        <v>-0.4076110439999999</v>
+      </c>
+      <c r="O55">
+        <v>-0.06114165659999998</v>
+      </c>
+      <c r="P55">
+        <v>-0.3464693873999999</v>
+      </c>
+      <c r="Q55">
+        <v>-0.2244693873999999</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1782815271861909</v>
+      </c>
+      <c r="T55">
+        <v>2.059199930380169</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>0.0379391147368344</v>
+      </c>
+      <c r="W55">
+        <v>0.1767305846228435</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.2529274315788961</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1792035276276168</v>
+      </c>
+      <c r="C56">
+        <v>0.62367346308032</v>
+      </c>
+      <c r="D56">
+        <v>1.78983346308032</v>
+      </c>
+      <c r="E56">
+        <v>2.98216</v>
+      </c>
+      <c r="F56">
+        <v>3.02616</v>
+      </c>
+      <c r="G56">
+        <v>1.86</v>
+      </c>
+      <c r="H56">
+        <v>5.56</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0.26</v>
+      </c>
+      <c r="K56">
+        <v>0.122</v>
+      </c>
+      <c r="L56">
+        <v>0.138</v>
+      </c>
+      <c r="M56">
+        <v>0.555905592</v>
+      </c>
+      <c r="N56">
+        <v>-0.417905592</v>
+      </c>
+      <c r="O56">
+        <v>-0.06268583879999999</v>
+      </c>
+      <c r="P56">
+        <v>-0.3552197532</v>
+      </c>
+      <c r="Q56">
+        <v>-0.2332197532</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1819550386467603</v>
+      </c>
+      <c r="T56">
+        <v>2.103965146257999</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>0.03723653853800413</v>
+      </c>
+      <c r="W56">
+        <v>0.1768596478705687</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.2482435902533608</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1809475276276168</v>
+      </c>
+      <c r="C57">
+        <v>0.5494481177814121</v>
+      </c>
+      <c r="D57">
+        <v>1.771648117781412</v>
+      </c>
+      <c r="E57">
+        <v>3.0382</v>
+      </c>
+      <c r="F57">
+        <v>3.0822</v>
+      </c>
+      <c r="G57">
+        <v>1.86</v>
+      </c>
+      <c r="H57">
+        <v>5.56</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0.26</v>
+      </c>
+      <c r="K57">
+        <v>0.122</v>
+      </c>
+      <c r="L57">
+        <v>0.138</v>
+      </c>
+      <c r="M57">
+        <v>0.56620014</v>
+      </c>
+      <c r="N57">
+        <v>-0.42820014</v>
+      </c>
+      <c r="O57">
+        <v>-0.06423002099999998</v>
+      </c>
+      <c r="P57">
+        <v>-0.363970119</v>
+      </c>
+      <c r="Q57">
+        <v>-0.241970119</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.185791817283355</v>
+      </c>
+      <c r="T57">
+        <v>2.150719927285955</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>0.03655951056458587</v>
+      </c>
+      <c r="W57">
+        <v>0.1769840179092856</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.2437300704305725</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1826915276276168</v>
+      </c>
+      <c r="C58">
+        <v>0.4755885947650027</v>
+      </c>
+      <c r="D58">
+        <v>1.753828594765002</v>
+      </c>
+      <c r="E58">
+        <v>3.09424</v>
+      </c>
+      <c r="F58">
+        <v>3.13824</v>
+      </c>
+      <c r="G58">
+        <v>1.86</v>
+      </c>
+      <c r="H58">
+        <v>5.56</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0.26</v>
+      </c>
+      <c r="K58">
+        <v>0.122</v>
+      </c>
+      <c r="L58">
+        <v>0.138</v>
+      </c>
+      <c r="M58">
+        <v>0.5764946879999999</v>
+      </c>
+      <c r="N58">
+        <v>-0.4384946879999999</v>
+      </c>
+      <c r="O58">
+        <v>-0.06577420319999998</v>
+      </c>
+      <c r="P58">
+        <v>-0.3727204847999999</v>
+      </c>
+      <c r="Q58">
+        <v>-0.2507204847999999</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1898029949488858</v>
+      </c>
+      <c r="T58">
+        <v>2.199599925633362</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>0.03590666216164685</v>
+      </c>
+      <c r="W58">
+        <v>0.1771039461609055</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.2393777477443123</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1844355276276168</v>
+      </c>
+      <c r="C59">
+        <v>0.4020839654536168</v>
+      </c>
+      <c r="D59">
+        <v>1.736363965453617</v>
+      </c>
+      <c r="E59">
+        <v>3.15028</v>
+      </c>
+      <c r="F59">
+        <v>3.19428</v>
+      </c>
+      <c r="G59">
+        <v>1.86</v>
+      </c>
+      <c r="H59">
+        <v>5.56</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0.26</v>
+      </c>
+      <c r="K59">
+        <v>0.122</v>
+      </c>
+      <c r="L59">
+        <v>0.138</v>
+      </c>
+      <c r="M59">
+        <v>0.586789236</v>
+      </c>
+      <c r="N59">
+        <v>-0.448789236</v>
+      </c>
+      <c r="O59">
+        <v>-0.0673183854</v>
+      </c>
+      <c r="P59">
+        <v>-0.3814708506</v>
+      </c>
+      <c r="Q59">
+        <v>-0.2594708506</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1940007390174645</v>
+      </c>
+      <c r="T59">
+        <v>2.250753412275999</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>0.03527672072021444</v>
+      </c>
+      <c r="W59">
+        <v>0.1772196664036966</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.235178138134763</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1861795276276168</v>
+      </c>
+      <c r="C60">
+        <v>0.3289237322849363</v>
+      </c>
+      <c r="D60">
+        <v>1.719243732284936</v>
+      </c>
+      <c r="E60">
+        <v>3.206319999999999</v>
+      </c>
+      <c r="F60">
+        <v>3.250319999999999</v>
+      </c>
+      <c r="G60">
+        <v>1.86</v>
+      </c>
+      <c r="H60">
+        <v>5.56</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0.26</v>
+      </c>
+      <c r="K60">
+        <v>0.122</v>
+      </c>
+      <c r="L60">
+        <v>0.138</v>
+      </c>
+      <c r="M60">
+        <v>0.597083784</v>
+      </c>
+      <c r="N60">
+        <v>-0.4590837839999999</v>
+      </c>
+      <c r="O60">
+        <v>-0.06886256759999999</v>
+      </c>
+      <c r="P60">
+        <v>-0.3902212164</v>
+      </c>
+      <c r="Q60">
+        <v>-0.2682212164</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1983983756607374</v>
+      </c>
+      <c r="T60">
+        <v>2.304342779234951</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>0.03466850139745212</v>
+      </c>
+      <c r="W60">
+        <v>0.177331396293288</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.2311233426496808</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1879235276276168</v>
+      </c>
+      <c r="C61">
+        <v>0.2560978076705953</v>
+      </c>
+      <c r="D61">
+        <v>1.702457807670594</v>
+      </c>
+      <c r="E61">
+        <v>3.262359999999999</v>
+      </c>
+      <c r="F61">
+        <v>3.306359999999999</v>
+      </c>
+      <c r="G61">
+        <v>1.86</v>
+      </c>
+      <c r="H61">
+        <v>5.56</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0.26</v>
+      </c>
+      <c r="K61">
+        <v>0.122</v>
+      </c>
+      <c r="L61">
+        <v>0.138</v>
+      </c>
+      <c r="M61">
+        <v>0.6073783319999999</v>
+      </c>
+      <c r="N61">
+        <v>-0.4693783319999999</v>
+      </c>
+      <c r="O61">
+        <v>-0.07040674979999999</v>
+      </c>
+      <c r="P61">
+        <v>-0.3989715821999999</v>
+      </c>
+      <c r="Q61">
+        <v>-0.2769715821999999</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.2030105311646578</v>
+      </c>
+      <c r="T61">
+        <v>2.360546261655315</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>0.03408089967885124</v>
+      </c>
+      <c r="W61">
+        <v>0.177439338728995</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.2272059978590083</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1896675276276168</v>
+      </c>
+      <c r="C62">
+        <v>0.1835964941756987</v>
+      </c>
+      <c r="D62">
+        <v>1.685996494175698</v>
+      </c>
+      <c r="E62">
+        <v>3.3184</v>
+      </c>
+      <c r="F62">
+        <v>3.3624</v>
+      </c>
+      <c r="G62">
+        <v>1.86</v>
+      </c>
+      <c r="H62">
+        <v>5.56</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0.26</v>
+      </c>
+      <c r="K62">
+        <v>0.122</v>
+      </c>
+      <c r="L62">
+        <v>0.138</v>
+      </c>
+      <c r="M62">
+        <v>0.61767288</v>
+      </c>
+      <c r="N62">
+        <v>-0.47967288</v>
+      </c>
+      <c r="O62">
+        <v>-0.071950932</v>
+      </c>
+      <c r="P62">
+        <v>-0.4077219479999999</v>
+      </c>
+      <c r="Q62">
+        <v>-0.2857219479999999</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.2078532944437743</v>
+      </c>
+      <c r="T62">
+        <v>2.419559918196699</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>0.03351288468420371</v>
+      </c>
+      <c r="W62">
+        <v>0.1775436830835118</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.2234192312280248</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1914115276276168</v>
+      </c>
+      <c r="C63">
+        <v>0.1114104658372015</v>
+      </c>
+      <c r="D63">
+        <v>1.669850465837201</v>
+      </c>
+      <c r="E63">
+        <v>3.374439999999999</v>
+      </c>
+      <c r="F63">
+        <v>3.418439999999999</v>
+      </c>
+      <c r="G63">
+        <v>1.86</v>
+      </c>
+      <c r="H63">
+        <v>5.56</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0.26</v>
+      </c>
+      <c r="K63">
+        <v>0.122</v>
+      </c>
+      <c r="L63">
+        <v>0.138</v>
+      </c>
+      <c r="M63">
+        <v>0.6279674279999999</v>
+      </c>
+      <c r="N63">
+        <v>-0.4899674279999999</v>
+      </c>
+      <c r="O63">
+        <v>-0.07349511419999999</v>
+      </c>
+      <c r="P63">
+        <v>-0.4164723137999999</v>
+      </c>
+      <c r="Q63">
+        <v>-0.2944723137999999</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.2129444045577173</v>
+      </c>
+      <c r="T63">
+        <v>2.481599916099178</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>0.03296349313200366</v>
+      </c>
+      <c r="W63">
+        <v>0.1776446063116509</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.2197566208800245</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.1931555276276168</v>
+      </c>
+      <c r="C64">
+        <v>0.03953075054553823</v>
+      </c>
+      <c r="D64">
+        <v>1.654010750545537</v>
+      </c>
+      <c r="E64">
+        <v>3.430479999999999</v>
+      </c>
+      <c r="F64">
+        <v>3.474479999999999</v>
+      </c>
+      <c r="G64">
+        <v>1.86</v>
+      </c>
+      <c r="H64">
+        <v>5.56</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0.26</v>
+      </c>
+      <c r="K64">
+        <v>0.122</v>
+      </c>
+      <c r="L64">
+        <v>0.138</v>
+      </c>
+      <c r="M64">
+        <v>0.6382619759999999</v>
+      </c>
+      <c r="N64">
+        <v>-0.5002619759999999</v>
+      </c>
+      <c r="O64">
+        <v>-0.07503929639999998</v>
+      </c>
+      <c r="P64">
+        <v>-0.4252226795999999</v>
+      </c>
+      <c r="Q64">
+        <v>-0.3032226795999999</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.2183034678355519</v>
+      </c>
+      <c r="T64">
+        <v>2.546905177049157</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>0.03243182388793909</v>
+      </c>
+      <c r="W64">
+        <v>0.1777422739517856</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.2162121592529272</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1948995276276168</v>
+      </c>
+      <c r="C65">
+        <v>-0.03205128658043499</v>
+      </c>
+      <c r="D65">
+        <v>1.638468713419565</v>
+      </c>
+      <c r="E65">
+        <v>3.48652</v>
+      </c>
+      <c r="F65">
+        <v>3.53052</v>
+      </c>
+      <c r="G65">
+        <v>1.86</v>
+      </c>
+      <c r="H65">
+        <v>5.56</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0.26</v>
+      </c>
+      <c r="K65">
+        <v>0.122</v>
+      </c>
+      <c r="L65">
+        <v>0.138</v>
+      </c>
+      <c r="M65">
+        <v>0.648556524</v>
+      </c>
+      <c r="N65">
+        <v>-0.510556524</v>
+      </c>
+      <c r="O65">
+        <v>-0.07658347859999999</v>
+      </c>
+      <c r="P65">
+        <v>-0.4339730454</v>
+      </c>
+      <c r="Q65">
+        <v>-0.3119730454</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.2239522102094858</v>
+      </c>
+      <c r="T65">
+        <v>2.615740452104539</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>0.03191703303257497</v>
+      </c>
+      <c r="W65">
+        <v>0.177836841031916</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.2127802202171665</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.1966435276276168</v>
+      </c>
+      <c r="C66">
+        <v>-0.1033439588899023</v>
+      </c>
+      <c r="D66">
+        <v>1.623216041110097</v>
+      </c>
+      <c r="E66">
+        <v>3.542559999999999</v>
+      </c>
+      <c r="F66">
+        <v>3.58656</v>
+      </c>
+      <c r="G66">
+        <v>1.86</v>
+      </c>
+      <c r="H66">
+        <v>5.56</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0.26</v>
+      </c>
+      <c r="K66">
+        <v>0.122</v>
+      </c>
+      <c r="L66">
+        <v>0.138</v>
+      </c>
+      <c r="M66">
+        <v>0.6588510719999999</v>
+      </c>
+      <c r="N66">
+        <v>-0.5208510719999999</v>
+      </c>
+      <c r="O66">
+        <v>-0.07812766079999998</v>
+      </c>
+      <c r="P66">
+        <v>-0.4427234111999999</v>
+      </c>
+      <c r="Q66">
+        <v>-0.3207234111999999</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.2299147716041937</v>
+      </c>
+      <c r="T66">
+        <v>2.688399909107443</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>0.03141832939144099</v>
+      </c>
+      <c r="W66">
+        <v>0.1779284528907923</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.2094555292762733</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1983875276276168</v>
+      </c>
+      <c r="C67">
+        <v>-0.1743552730279294</v>
+      </c>
+      <c r="D67">
+        <v>1.60824472697207</v>
+      </c>
+      <c r="E67">
+        <v>3.598599999999999</v>
+      </c>
+      <c r="F67">
+        <v>3.642599999999999</v>
+      </c>
+      <c r="G67">
+        <v>1.86</v>
+      </c>
+      <c r="H67">
+        <v>5.56</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0.26</v>
+      </c>
+      <c r="K67">
+        <v>0.122</v>
+      </c>
+      <c r="L67">
+        <v>0.138</v>
+      </c>
+      <c r="M67">
+        <v>0.6691456199999999</v>
+      </c>
+      <c r="N67">
+        <v>-0.5311456199999999</v>
+      </c>
+      <c r="O67">
+        <v>-0.07967184299999998</v>
+      </c>
+      <c r="P67">
+        <v>-0.4514737769999999</v>
+      </c>
+      <c r="Q67">
+        <v>-0.3294737769999999</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.2362180507928849</v>
+      </c>
+      <c r="T67">
+        <v>2.765211335081941</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0.03093497047772651</v>
+      </c>
+      <c r="W67">
+        <v>0.1780172459232416</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.2062331365181768</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.2001315276276168</v>
+      </c>
+      <c r="C68">
+        <v>-0.2450929429502318</v>
+      </c>
+      <c r="D68">
+        <v>1.593547057049768</v>
+      </c>
+      <c r="E68">
+        <v>3.65464</v>
+      </c>
+      <c r="F68">
+        <v>3.69864</v>
+      </c>
+      <c r="G68">
+        <v>1.86</v>
+      </c>
+      <c r="H68">
+        <v>5.56</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0.26</v>
+      </c>
+      <c r="K68">
+        <v>0.122</v>
+      </c>
+      <c r="L68">
+        <v>0.138</v>
+      </c>
+      <c r="M68">
+        <v>0.679440168</v>
+      </c>
+      <c r="N68">
+        <v>-0.5414401679999999</v>
+      </c>
+      <c r="O68">
+        <v>-0.08121602519999999</v>
+      </c>
+      <c r="P68">
+        <v>-0.4602241428</v>
+      </c>
+      <c r="Q68">
+        <v>-0.3382241428</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.2428921111103228</v>
+      </c>
+      <c r="T68">
+        <v>2.846541080231411</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0.03046625880382156</v>
+      </c>
+      <c r="W68">
+        <v>0.178103348257738</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.2031083920254771</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.2018755276276168</v>
+      </c>
+      <c r="C69">
+        <v>-0.3155644031764178</v>
+      </c>
+      <c r="D69">
+        <v>1.579115596823582</v>
+      </c>
+      <c r="E69">
+        <v>3.71068</v>
+      </c>
+      <c r="F69">
+        <v>3.75468</v>
+      </c>
+      <c r="G69">
+        <v>1.86</v>
+      </c>
+      <c r="H69">
+        <v>5.56</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0.26</v>
+      </c>
+      <c r="K69">
+        <v>0.122</v>
+      </c>
+      <c r="L69">
+        <v>0.138</v>
+      </c>
+      <c r="M69">
+        <v>0.6897347159999999</v>
+      </c>
+      <c r="N69">
+        <v>-0.5517347159999999</v>
+      </c>
+      <c r="O69">
+        <v>-0.08276020739999998</v>
+      </c>
+      <c r="P69">
+        <v>-0.4689745085999999</v>
+      </c>
+      <c r="Q69">
+        <v>-0.3469745085999999</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.2499706599318477</v>
+      </c>
+      <c r="T69">
+        <v>2.932799900844484</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0.03001153852316751</v>
+      </c>
+      <c r="W69">
+        <v>0.1781868803732941</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.2000769234877834</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.2036195276276168</v>
+      </c>
+      <c r="C70">
+        <v>-0.3857768213295643</v>
+      </c>
+      <c r="D70">
+        <v>1.564943178670436</v>
+      </c>
+      <c r="E70">
+        <v>3.76672</v>
+      </c>
+      <c r="F70">
+        <v>3.81072</v>
+      </c>
+      <c r="G70">
+        <v>1.86</v>
+      </c>
+      <c r="H70">
+        <v>5.56</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0.26</v>
+      </c>
+      <c r="K70">
+        <v>0.122</v>
+      </c>
+      <c r="L70">
+        <v>0.138</v>
+      </c>
+      <c r="M70">
+        <v>0.700029264</v>
+      </c>
+      <c r="N70">
+        <v>-0.562029264</v>
+      </c>
+      <c r="O70">
+        <v>-0.08430438959999999</v>
+      </c>
+      <c r="P70">
+        <v>-0.4777248744</v>
+      </c>
+      <c r="Q70">
+        <v>-0.3557248744</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.2574916180547179</v>
+      </c>
+      <c r="T70">
+        <v>3.024449897745874</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0.02957019236841504</v>
+      </c>
+      <c r="W70">
+        <v>0.1782679556619222</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.1971346157894337</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.2053635276276168</v>
+      </c>
+      <c r="C71">
+        <v>-0.4557371100065319</v>
+      </c>
+      <c r="D71">
+        <v>1.551022889993468</v>
+      </c>
+      <c r="E71">
+        <v>3.82276</v>
+      </c>
+      <c r="F71">
+        <v>3.86676</v>
+      </c>
+      <c r="G71">
+        <v>1.86</v>
+      </c>
+      <c r="H71">
+        <v>5.56</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0.26</v>
+      </c>
+      <c r="K71">
+        <v>0.122</v>
+      </c>
+      <c r="L71">
+        <v>0.138</v>
+      </c>
+      <c r="M71">
+        <v>0.7103238119999999</v>
+      </c>
+      <c r="N71">
+        <v>-0.5723238119999999</v>
+      </c>
+      <c r="O71">
+        <v>-0.08584857179999998</v>
+      </c>
+      <c r="P71">
+        <v>-0.4864752401999999</v>
+      </c>
+      <c r="Q71">
+        <v>-0.3644752401999999</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.2654977992822894</v>
+      </c>
+      <c r="T71">
+        <v>3.12201279767316</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0.02914163885582932</v>
+      </c>
+      <c r="W71">
+        <v>0.1783466809421841</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.1942775923721954</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.2071075276276168</v>
+      </c>
+      <c r="C72">
+        <v>-0.5254519380203622</v>
+      </c>
+      <c r="D72">
+        <v>1.537348061979637</v>
+      </c>
+      <c r="E72">
+        <v>3.8788</v>
+      </c>
+      <c r="F72">
+        <v>3.9228</v>
+      </c>
+      <c r="G72">
+        <v>1.86</v>
+      </c>
+      <c r="H72">
+        <v>5.56</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0.26</v>
+      </c>
+      <c r="K72">
+        <v>0.122</v>
+      </c>
+      <c r="L72">
+        <v>0.138</v>
+      </c>
+      <c r="M72">
+        <v>0.7206183599999999</v>
+      </c>
+      <c r="N72">
+        <v>-0.5826183599999999</v>
+      </c>
+      <c r="O72">
+        <v>-0.08739275399999998</v>
+      </c>
+      <c r="P72">
+        <v>-0.4952256059999999</v>
+      </c>
+      <c r="Q72">
+        <v>-0.3732256059999999</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.2740377259250324</v>
+      </c>
+      <c r="T72">
+        <v>3.226079890928932</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0.02872532972931748</v>
+      </c>
+      <c r="W72">
+        <v>0.1784231569287244</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.1915021981954499</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.2088515276276168</v>
+      </c>
+      <c r="C73">
+        <v>-0.5949277410531288</v>
+      </c>
+      <c r="D73">
+        <v>1.52391225894687</v>
+      </c>
+      <c r="E73">
+        <v>3.934839999999999</v>
+      </c>
+      <c r="F73">
+        <v>3.978839999999999</v>
+      </c>
+      <c r="G73">
+        <v>1.86</v>
+      </c>
+      <c r="H73">
+        <v>5.56</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0.26</v>
+      </c>
+      <c r="K73">
+        <v>0.122</v>
+      </c>
+      <c r="L73">
+        <v>0.138</v>
+      </c>
+      <c r="M73">
+        <v>0.7309129079999999</v>
+      </c>
+      <c r="N73">
+        <v>-0.5929129079999998</v>
+      </c>
+      <c r="O73">
+        <v>-0.08893693619999997</v>
+      </c>
+      <c r="P73">
+        <v>-0.5039759717999999</v>
+      </c>
+      <c r="Q73">
+        <v>-0.3819759717999999</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.2831666130258956</v>
+      </c>
+      <c r="T73">
+        <v>3.337324025098895</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0.02832074762045385</v>
+      </c>
+      <c r="W73">
+        <v>0.1784974786621226</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.188804984136359</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.2105955276276168</v>
+      </c>
+      <c r="C74">
+        <v>-0.6641707317550387</v>
+      </c>
+      <c r="D74">
+        <v>1.510709268244961</v>
+      </c>
+      <c r="E74">
+        <v>3.990879999999999</v>
+      </c>
+      <c r="F74">
+        <v>4.034879999999999</v>
+      </c>
+      <c r="G74">
+        <v>1.86</v>
+      </c>
+      <c r="H74">
+        <v>5.56</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0.26</v>
+      </c>
+      <c r="K74">
+        <v>0.122</v>
+      </c>
+      <c r="L74">
+        <v>0.138</v>
+      </c>
+      <c r="M74">
+        <v>0.7412074559999999</v>
+      </c>
+      <c r="N74">
+        <v>-0.6032074559999999</v>
+      </c>
+      <c r="O74">
+        <v>-0.09048111839999999</v>
+      </c>
+      <c r="P74">
+        <v>-0.5127263376</v>
+      </c>
+      <c r="Q74">
+        <v>-0.3907263376</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.2929475634911061</v>
+      </c>
+      <c r="T74">
+        <v>3.456514168852427</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0.0279274039035031</v>
+      </c>
+      <c r="W74">
+        <v>0.1785697359029265</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.1861826926900206</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.2123395276276168</v>
+      </c>
+      <c r="C75">
+        <v>-0.7331869093230408</v>
+      </c>
+      <c r="D75">
+        <v>1.497733090676959</v>
+      </c>
+      <c r="E75">
+        <v>4.04692</v>
+      </c>
+      <c r="F75">
+        <v>4.09092</v>
+      </c>
+      <c r="G75">
+        <v>1.86</v>
+      </c>
+      <c r="H75">
+        <v>5.56</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0.26</v>
+      </c>
+      <c r="K75">
+        <v>0.122</v>
+      </c>
+      <c r="L75">
+        <v>0.138</v>
+      </c>
+      <c r="M75">
+        <v>0.751502004</v>
+      </c>
+      <c r="N75">
+        <v>-0.613502004</v>
+      </c>
+      <c r="O75">
+        <v>-0.0920253006</v>
+      </c>
+      <c r="P75">
+        <v>-0.5214767034</v>
+      </c>
+      <c r="Q75">
+        <v>-0.3994767034</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.3034530288055915</v>
+      </c>
+      <c r="T75">
+        <v>3.584533212143257</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0.02754483672674278</v>
+      </c>
+      <c r="W75">
+        <v>0.1786400134932974</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.1836322448449519</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.2140835276276168</v>
+      </c>
+      <c r="C76">
+        <v>-0.8019820685900023</v>
+      </c>
+      <c r="D76">
+        <v>1.484977931409997</v>
+      </c>
+      <c r="E76">
+        <v>4.102959999999999</v>
+      </c>
+      <c r="F76">
+        <v>4.146959999999999</v>
+      </c>
+      <c r="G76">
+        <v>1.86</v>
+      </c>
+      <c r="H76">
+        <v>5.56</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0.26</v>
+      </c>
+      <c r="K76">
+        <v>0.122</v>
+      </c>
+      <c r="L76">
+        <v>0.138</v>
+      </c>
+      <c r="M76">
+        <v>0.7617965519999998</v>
+      </c>
+      <c r="N76">
+        <v>-0.6237965519999998</v>
+      </c>
+      <c r="O76">
+        <v>-0.09356948279999998</v>
+      </c>
+      <c r="P76">
+        <v>-0.5302270691999998</v>
+      </c>
+      <c r="Q76">
+        <v>-0.4082270691999998</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.3147666068365758</v>
+      </c>
+      <c r="T76">
+        <v>3.722399874148767</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0.02717260920340843</v>
+      </c>
+      <c r="W76">
+        <v>0.1787083916893339</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.1811507280227228</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.2158275276276168</v>
+      </c>
+      <c r="C77">
+        <v>-0.8705618086533651</v>
+      </c>
+      <c r="D77">
+        <v>1.472438191346634</v>
+      </c>
+      <c r="E77">
+        <v>4.159</v>
+      </c>
+      <c r="F77">
+        <v>4.202999999999999</v>
+      </c>
+      <c r="G77">
+        <v>1.86</v>
+      </c>
+      <c r="H77">
+        <v>5.56</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0.26</v>
+      </c>
+      <c r="K77">
+        <v>0.122</v>
+      </c>
+      <c r="L77">
+        <v>0.138</v>
+      </c>
+      <c r="M77">
+        <v>0.7720910999999999</v>
+      </c>
+      <c r="N77">
+        <v>-0.6340910999999999</v>
+      </c>
+      <c r="O77">
+        <v>-0.09511366499999999</v>
+      </c>
+      <c r="P77">
+        <v>-0.5389774349999999</v>
+      </c>
+      <c r="Q77">
+        <v>-0.416977435</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.3269852711100389</v>
+      </c>
+      <c r="T77">
+        <v>3.871295869114718</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0.02681030774736298</v>
+      </c>
+      <c r="W77">
+        <v>0.1787749464668094</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.1787353849824198</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.2175715276276168</v>
+      </c>
+      <c r="C78">
+        <v>-0.9389315410702697</v>
+      </c>
+      <c r="D78">
+        <v>1.46010845892973</v>
+      </c>
+      <c r="E78">
+        <v>4.21504</v>
+      </c>
+      <c r="F78">
+        <v>4.25904</v>
+      </c>
+      <c r="G78">
+        <v>1.86</v>
+      </c>
+      <c r="H78">
+        <v>5.56</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0.26</v>
+      </c>
+      <c r="K78">
+        <v>0.122</v>
+      </c>
+      <c r="L78">
+        <v>0.138</v>
+      </c>
+      <c r="M78">
+        <v>0.782385648</v>
+      </c>
+      <c r="N78">
+        <v>-0.644385648</v>
+      </c>
+      <c r="O78">
+        <v>-0.09665784719999999</v>
+      </c>
+      <c r="P78">
+        <v>-0.5477278007999999</v>
+      </c>
+      <c r="Q78">
+        <v>-0.4257278007999999</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.3402221574062905</v>
+      </c>
+      <c r="T78">
+        <v>4.032599863661165</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0.02645754054016083</v>
+      </c>
+      <c r="W78">
+        <v>0.1788397498027725</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.1763836036010722</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.2193155276276168</v>
+      </c>
+      <c r="C79">
+        <v>-1.007096497644379</v>
+      </c>
+      <c r="D79">
+        <v>1.44798350235562</v>
+      </c>
+      <c r="E79">
+        <v>4.27108</v>
+      </c>
+      <c r="F79">
+        <v>4.315079999999999</v>
+      </c>
+      <c r="G79">
+        <v>1.86</v>
+      </c>
+      <c r="H79">
+        <v>5.56</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0.26</v>
+      </c>
+      <c r="K79">
+        <v>0.122</v>
+      </c>
+      <c r="L79">
+        <v>0.138</v>
+      </c>
+      <c r="M79">
+        <v>0.7926801959999998</v>
+      </c>
+      <c r="N79">
+        <v>-0.6546801959999998</v>
+      </c>
+      <c r="O79">
+        <v>-0.09820202939999997</v>
+      </c>
+      <c r="P79">
+        <v>-0.5564781665999998</v>
+      </c>
+      <c r="Q79">
+        <v>-0.4344781665999998</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.3546100772935206</v>
+      </c>
+      <c r="T79">
+        <v>4.207930292515998</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0.02611393611756135</v>
+      </c>
+      <c r="W79">
+        <v>0.178902869935204</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.174092907450409</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.2210595276276168</v>
+      </c>
+      <c r="C80">
+        <v>-1.075061737827899</v>
+      </c>
+      <c r="D80">
+        <v>1.436058262172101</v>
+      </c>
+      <c r="E80">
+        <v>4.32712</v>
+      </c>
+      <c r="F80">
+        <v>4.371119999999999</v>
+      </c>
+      <c r="G80">
+        <v>1.86</v>
+      </c>
+      <c r="H80">
+        <v>5.56</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0.26</v>
+      </c>
+      <c r="K80">
+        <v>0.122</v>
+      </c>
+      <c r="L80">
+        <v>0.138</v>
+      </c>
+      <c r="M80">
+        <v>0.8029747439999999</v>
+      </c>
+      <c r="N80">
+        <v>-0.6649747439999999</v>
+      </c>
+      <c r="O80">
+        <v>-0.09974621159999998</v>
+      </c>
+      <c r="P80">
+        <v>-0.5652285323999999</v>
+      </c>
+      <c r="Q80">
+        <v>-0.4432285323999999</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.3703059898977715</v>
+      </c>
+      <c r="T80">
+        <v>4.399199851266725</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0.02577914206477209</v>
+      </c>
+      <c r="W80">
+        <v>0.1789643716027014</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.1718609470984807</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.2228035276276168</v>
+      </c>
+      <c r="C81">
+        <v>-1.142832155760836</v>
+      </c>
+      <c r="D81">
+        <v>1.424327844239164</v>
+      </c>
+      <c r="E81">
+        <v>4.38316</v>
+      </c>
+      <c r="F81">
+        <v>4.42716</v>
+      </c>
+      <c r="G81">
+        <v>1.86</v>
+      </c>
+      <c r="H81">
+        <v>5.56</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0.26</v>
+      </c>
+      <c r="K81">
+        <v>0.122</v>
+      </c>
+      <c r="L81">
+        <v>0.138</v>
+      </c>
+      <c r="M81">
+        <v>0.813269292</v>
+      </c>
+      <c r="N81">
+        <v>-0.675269292</v>
+      </c>
+      <c r="O81">
+        <v>-0.1012903938</v>
+      </c>
+      <c r="P81">
+        <v>-0.5739788982</v>
+      </c>
+      <c r="Q81">
+        <v>-0.4519788982</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.3874967513214749</v>
+      </c>
+      <c r="T81">
+        <v>4.608685558469903</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0.02545282381078763</v>
+      </c>
+      <c r="W81">
+        <v>0.1790243162659583</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.1696854920719175</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.2245475276276168</v>
+      </c>
+      <c r="C82">
+        <v>-1.210412486968033</v>
+      </c>
+      <c r="D82">
+        <v>1.412787513031966</v>
+      </c>
+      <c r="E82">
+        <v>4.4392</v>
+      </c>
+      <c r="F82">
+        <v>4.483199999999999</v>
+      </c>
+      <c r="G82">
+        <v>1.86</v>
+      </c>
+      <c r="H82">
+        <v>5.56</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0.26</v>
+      </c>
+      <c r="K82">
+        <v>0.122</v>
+      </c>
+      <c r="L82">
+        <v>0.138</v>
+      </c>
+      <c r="M82">
+        <v>0.8235638399999998</v>
+      </c>
+      <c r="N82">
+        <v>-0.6855638399999998</v>
+      </c>
+      <c r="O82">
+        <v>-0.102834576</v>
+      </c>
+      <c r="P82">
+        <v>-0.5827292639999998</v>
+      </c>
+      <c r="Q82">
+        <v>-0.4607292639999998</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.4064065888875488</v>
+      </c>
+      <c r="T82">
+        <v>4.839119836393399</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0.02513466351315279</v>
+      </c>
+      <c r="W82">
+        <v>0.1790827623126338</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.1675644234210186</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.2262915276276168</v>
+      </c>
+      <c r="C83">
+        <v>-1.277807314733272</v>
+      </c>
+      <c r="D83">
+        <v>1.401432685266727</v>
+      </c>
+      <c r="E83">
+        <v>4.49524</v>
+      </c>
+      <c r="F83">
+        <v>4.539239999999999</v>
+      </c>
+      <c r="G83">
+        <v>1.86</v>
+      </c>
+      <c r="H83">
+        <v>5.56</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0.26</v>
+      </c>
+      <c r="K83">
+        <v>0.122</v>
+      </c>
+      <c r="L83">
+        <v>0.138</v>
+      </c>
+      <c r="M83">
+        <v>0.8338583879999999</v>
+      </c>
+      <c r="N83">
+        <v>-0.6958583879999999</v>
+      </c>
+      <c r="O83">
+        <v>-0.1043787582</v>
+      </c>
+      <c r="P83">
+        <v>-0.5914796297999999</v>
+      </c>
+      <c r="Q83">
+        <v>-0.4694796297999999</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.4273069356711039</v>
+      </c>
+      <c r="T83">
+        <v>5.093810354098315</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0.02482435902533609</v>
+      </c>
+      <c r="W83">
+        <v>0.1791397652470458</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.1654957268355739</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.2280355276276168</v>
+      </c>
+      <c r="C84">
+        <v>-1.345021076168434</v>
+      </c>
+      <c r="D84">
+        <v>1.390258923831565</v>
+      </c>
+      <c r="E84">
+        <v>4.55128</v>
+      </c>
+      <c r="F84">
+        <v>4.59528</v>
+      </c>
+      <c r="G84">
+        <v>1.86</v>
+      </c>
+      <c r="H84">
+        <v>5.56</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0.26</v>
+      </c>
+      <c r="K84">
+        <v>0.122</v>
+      </c>
+      <c r="L84">
+        <v>0.138</v>
+      </c>
+      <c r="M84">
+        <v>0.844152936</v>
+      </c>
+      <c r="N84">
+        <v>-0.706152936</v>
+      </c>
+      <c r="O84">
+        <v>-0.1059229404</v>
+      </c>
+      <c r="P84">
+        <v>-0.6002299956</v>
+      </c>
+      <c r="Q84">
+        <v>-0.4782299956</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.4505295432083875</v>
+      </c>
+      <c r="T84">
+        <v>5.376799818214888</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0.02452162293966126</v>
+      </c>
+      <c r="W84">
+        <v>0.1791953778659842</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.1634774862644084</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.2297795276276168</v>
+      </c>
+      <c r="C85">
+        <v>-1.412058067994621</v>
+      </c>
+      <c r="D85">
+        <v>1.379261932005379</v>
+      </c>
+      <c r="E85">
+        <v>4.607320000000001</v>
+      </c>
+      <c r="F85">
+        <v>4.65132</v>
+      </c>
+      <c r="G85">
+        <v>1.86</v>
+      </c>
+      <c r="H85">
+        <v>5.56</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0.26</v>
+      </c>
+      <c r="K85">
+        <v>0.122</v>
+      </c>
+      <c r="L85">
+        <v>0.138</v>
+      </c>
+      <c r="M85">
+        <v>0.854447484</v>
+      </c>
+      <c r="N85">
+        <v>-0.716447484</v>
+      </c>
+      <c r="O85">
+        <v>-0.1074671226</v>
+      </c>
+      <c r="P85">
+        <v>-0.6089803614</v>
+      </c>
+      <c r="Q85">
+        <v>-0.4869803614</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.4764842222206456</v>
+      </c>
+      <c r="T85">
+        <v>5.693082160462823</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0.02422618169942438</v>
+      </c>
+      <c r="W85">
+        <v>0.1792496504218158</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.1615078779961625</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.2315235276276168</v>
+      </c>
+      <c r="C86">
+        <v>-1.478922452051056</v>
+      </c>
+      <c r="D86">
+        <v>1.368437547948943</v>
+      </c>
+      <c r="E86">
+        <v>4.66336</v>
+      </c>
+      <c r="F86">
+        <v>4.70736</v>
+      </c>
+      <c r="G86">
+        <v>1.86</v>
+      </c>
+      <c r="H86">
+        <v>5.56</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0.26</v>
+      </c>
+      <c r="K86">
+        <v>0.122</v>
+      </c>
+      <c r="L86">
+        <v>0.138</v>
+      </c>
+      <c r="M86">
+        <v>0.8647420319999999</v>
+      </c>
+      <c r="N86">
+        <v>-0.7267420319999999</v>
+      </c>
+      <c r="O86">
+        <v>-0.1090113048</v>
+      </c>
+      <c r="P86">
+        <v>-0.6177307271999999</v>
+      </c>
+      <c r="Q86">
+        <v>-0.4957307271999999</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.5056832361094357</v>
+      </c>
+      <c r="T86">
+        <v>6.048899795491746</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0.02393777477443123</v>
+      </c>
+      <c r="W86">
+        <v>0.179302630773937</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.1595851651628749</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.2332675276276168</v>
+      </c>
+      <c r="C87">
+        <v>-1.545618260546611</v>
+      </c>
+      <c r="D87">
+        <v>1.357781739453388</v>
+      </c>
+      <c r="E87">
+        <v>4.719399999999999</v>
+      </c>
+      <c r="F87">
+        <v>4.763399999999999</v>
+      </c>
+      <c r="G87">
+        <v>1.86</v>
+      </c>
+      <c r="H87">
+        <v>5.56</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0.26</v>
+      </c>
+      <c r="K87">
+        <v>0.122</v>
+      </c>
+      <c r="L87">
+        <v>0.138</v>
+      </c>
+      <c r="M87">
+        <v>0.8750365799999998</v>
+      </c>
+      <c r="N87">
+        <v>-0.7370365799999998</v>
+      </c>
+      <c r="O87">
+        <v>-0.110555487</v>
+      </c>
+      <c r="P87">
+        <v>-0.6264810929999999</v>
+      </c>
+      <c r="Q87">
+        <v>-0.5044810929999999</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.5387754518500647</v>
+      </c>
+      <c r="T87">
+        <v>6.452159781857862</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0.02365615389473204</v>
+      </c>
+      <c r="W87">
+        <v>0.1793543645295377</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.1577076926315469</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.2350115276276168</v>
+      </c>
+      <c r="C88">
+        <v>-1.612149401067859</v>
+      </c>
+      <c r="D88">
+        <v>1.34729059893214</v>
+      </c>
+      <c r="E88">
+        <v>4.77544</v>
+      </c>
+      <c r="F88">
+        <v>4.819439999999999</v>
+      </c>
+      <c r="G88">
+        <v>1.86</v>
+      </c>
+      <c r="H88">
+        <v>5.56</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0.26</v>
+      </c>
+      <c r="K88">
+        <v>0.122</v>
+      </c>
+      <c r="L88">
+        <v>0.138</v>
+      </c>
+      <c r="M88">
+        <v>0.8853311279999999</v>
+      </c>
+      <c r="N88">
+        <v>-0.7473311279999999</v>
+      </c>
+      <c r="O88">
+        <v>-0.1120996692</v>
+      </c>
+      <c r="P88">
+        <v>-0.6352314587999999</v>
+      </c>
+      <c r="Q88">
+        <v>-0.5132314587999999</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.5765951269822123</v>
+      </c>
+      <c r="T88">
+        <v>6.913028337704853</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0.02338108233781655</v>
+      </c>
+      <c r="W88">
+        <v>0.1794048951745431</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.1558738822521103</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.2367555276276168</v>
+      </c>
+      <c r="C89">
+        <v>-1.678519661356738</v>
+      </c>
+      <c r="D89">
+        <v>1.336960338643261</v>
+      </c>
+      <c r="E89">
+        <v>4.83148</v>
+      </c>
+      <c r="F89">
+        <v>4.87548</v>
+      </c>
+      <c r="G89">
+        <v>1.86</v>
+      </c>
+      <c r="H89">
+        <v>5.56</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0.26</v>
+      </c>
+      <c r="K89">
+        <v>0.122</v>
+      </c>
+      <c r="L89">
+        <v>0.138</v>
+      </c>
+      <c r="M89">
+        <v>0.895625676</v>
+      </c>
+      <c r="N89">
+        <v>-0.757625676</v>
+      </c>
+      <c r="O89">
+        <v>-0.1136438514</v>
+      </c>
+      <c r="P89">
+        <v>-0.6439818246</v>
+      </c>
+      <c r="Q89">
+        <v>-0.5219818246</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.6202332136731517</v>
+      </c>
+      <c r="T89">
+        <v>7.444799748297534</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0.02311233426496808</v>
+      </c>
+      <c r="W89">
+        <v>0.1794542641955254</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.1540822284331206</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.2384995276276168</v>
+      </c>
+      <c r="C90">
+        <v>-1.744732713870101</v>
+      </c>
+      <c r="D90">
+        <v>1.326787286129898</v>
+      </c>
+      <c r="E90">
+        <v>4.887519999999999</v>
+      </c>
+      <c r="F90">
+        <v>4.931519999999999</v>
+      </c>
+      <c r="G90">
+        <v>1.86</v>
+      </c>
+      <c r="H90">
+        <v>5.56</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0.26</v>
+      </c>
+      <c r="K90">
+        <v>0.122</v>
+      </c>
+      <c r="L90">
+        <v>0.138</v>
+      </c>
+      <c r="M90">
+        <v>0.9059202239999998</v>
+      </c>
+      <c r="N90">
+        <v>-0.7679202239999998</v>
+      </c>
+      <c r="O90">
+        <v>-0.1151880336</v>
+      </c>
+      <c r="P90">
+        <v>-0.6527321903999999</v>
+      </c>
+      <c r="Q90">
+        <v>-0.5307321903999999</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.6711443148125811</v>
+      </c>
+      <c r="T90">
+        <v>8.06519972732233</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0.02284969410286617</v>
+      </c>
+      <c r="W90">
+        <v>0.1795025111933035</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.1523312940191078</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2402435276276168</v>
+      </c>
+      <c r="C91">
+        <v>-1.810792120132664</v>
+      </c>
+      <c r="D91">
+        <v>1.316767879867335</v>
+      </c>
+      <c r="E91">
+        <v>4.94356</v>
+      </c>
+      <c r="F91">
+        <v>4.987559999999999</v>
+      </c>
+      <c r="G91">
+        <v>1.86</v>
+      </c>
+      <c r="H91">
+        <v>5.56</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0.26</v>
+      </c>
+      <c r="K91">
+        <v>0.122</v>
+      </c>
+      <c r="L91">
+        <v>0.138</v>
+      </c>
+      <c r="M91">
+        <v>0.9162147719999999</v>
+      </c>
+      <c r="N91">
+        <v>-0.7782147719999999</v>
+      </c>
+      <c r="O91">
+        <v>-0.1167322158</v>
+      </c>
+      <c r="P91">
+        <v>-0.6614825562</v>
+      </c>
+      <c r="Q91">
+        <v>-0.5394825562</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.731311979795543</v>
+      </c>
+      <c r="T91">
+        <v>8.79839970253345</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0.02259295596687891</v>
+      </c>
+      <c r="W91">
+        <v>0.1795496739888843</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.1506197064458594</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2419875276276168</v>
+      </c>
+      <c r="C92">
+        <v>-1.876701334894205</v>
+      </c>
+      <c r="D92">
+        <v>1.306898665105795</v>
+      </c>
+      <c r="E92">
+        <v>4.9996</v>
+      </c>
+      <c r="F92">
+        <v>5.0436</v>
+      </c>
+      <c r="G92">
+        <v>1.86</v>
+      </c>
+      <c r="H92">
+        <v>5.56</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0.26</v>
+      </c>
+      <c r="K92">
+        <v>0.122</v>
+      </c>
+      <c r="L92">
+        <v>0.138</v>
+      </c>
+      <c r="M92">
+        <v>0.92650932</v>
+      </c>
+      <c r="N92">
+        <v>-0.78850932</v>
+      </c>
+      <c r="O92">
+        <v>-0.118276398</v>
+      </c>
+      <c r="P92">
+        <v>-0.670232922</v>
+      </c>
+      <c r="Q92">
+        <v>-0.548232922</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.8035131777750973</v>
+      </c>
+      <c r="T92">
+        <v>9.678239672786797</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0.02234192312280248</v>
+      </c>
+      <c r="W92">
+        <v>0.1795957887223412</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.1489461541520165</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2437315276276168</v>
+      </c>
+      <c r="C93">
+        <v>-1.942463710101198</v>
+      </c>
+      <c r="D93">
+        <v>1.297176289898801</v>
+      </c>
+      <c r="E93">
+        <v>5.055639999999999</v>
+      </c>
+      <c r="F93">
+        <v>5.099639999999999</v>
+      </c>
+      <c r="G93">
+        <v>1.86</v>
+      </c>
+      <c r="H93">
+        <v>5.56</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0.26</v>
+      </c>
+      <c r="K93">
+        <v>0.122</v>
+      </c>
+      <c r="L93">
+        <v>0.138</v>
+      </c>
+      <c r="M93">
+        <v>0.9368038679999998</v>
+      </c>
+      <c r="N93">
+        <v>-0.7988038679999998</v>
+      </c>
+      <c r="O93">
+        <v>-0.1198205802</v>
+      </c>
+      <c r="P93">
+        <v>-0.6789832877999998</v>
+      </c>
+      <c r="Q93">
+        <v>-0.5569832877999998</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.891759086416775</v>
+      </c>
+      <c r="T93">
+        <v>10.75359963642978</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0.02209640748409037</v>
+      </c>
+      <c r="W93">
+        <v>0.1796408899451726</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.1473093832272692</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2454755276276168</v>
+      </c>
+      <c r="C94">
+        <v>-2.008082498692498</v>
+      </c>
+      <c r="D94">
+        <v>1.287597501307501</v>
+      </c>
+      <c r="E94">
+        <v>5.11168</v>
+      </c>
+      <c r="F94">
+        <v>5.155679999999999</v>
+      </c>
+      <c r="G94">
+        <v>1.86</v>
+      </c>
+      <c r="H94">
+        <v>5.56</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0.26</v>
+      </c>
+      <c r="K94">
+        <v>0.122</v>
+      </c>
+      <c r="L94">
+        <v>0.138</v>
+      </c>
+      <c r="M94">
+        <v>0.9470984159999999</v>
+      </c>
+      <c r="N94">
+        <v>-0.8090984159999999</v>
+      </c>
+      <c r="O94">
+        <v>-0.1213647624</v>
+      </c>
+      <c r="P94">
+        <v>-0.6877336535999999</v>
+      </c>
+      <c r="Q94">
+        <v>-0.5657336535999999</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>1.002066472218872</v>
+      </c>
+      <c r="T94">
+        <v>12.0977995909835</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0.02185622914187199</v>
+      </c>
+      <c r="W94">
+        <v>0.1796850107066381</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.1457081942791466</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2472195276276168</v>
+      </c>
+      <c r="C95">
+        <v>-2.073560858228058</v>
+      </c>
+      <c r="D95">
+        <v>1.278159141771941</v>
+      </c>
+      <c r="E95">
+        <v>5.16772</v>
+      </c>
+      <c r="F95">
+        <v>5.21172</v>
+      </c>
+      <c r="G95">
+        <v>1.86</v>
+      </c>
+      <c r="H95">
+        <v>5.56</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0.26</v>
+      </c>
+      <c r="K95">
+        <v>0.122</v>
+      </c>
+      <c r="L95">
+        <v>0.138</v>
+      </c>
+      <c r="M95">
+        <v>0.957392964</v>
+      </c>
+      <c r="N95">
+        <v>-0.8193929639999999</v>
+      </c>
+      <c r="O95">
+        <v>-0.1229089446</v>
+      </c>
+      <c r="P95">
+        <v>-0.6964840193999999</v>
+      </c>
+      <c r="Q95">
+        <v>-0.5744840193999999</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>1.143890253964426</v>
+      </c>
+      <c r="T95">
+        <v>13.82605667540972</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0.02162121592529272</v>
+      </c>
+      <c r="W95">
+        <v>0.1797281826345237</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.1441414395019515</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2489635276276168</v>
+      </c>
+      <c r="C96">
+        <v>-2.138901854359243</v>
+      </c>
+      <c r="D96">
+        <v>1.268858145640757</v>
+      </c>
+      <c r="E96">
+        <v>5.22376</v>
+      </c>
+      <c r="F96">
+        <v>5.26776</v>
+      </c>
+      <c r="G96">
+        <v>1.86</v>
+      </c>
+      <c r="H96">
+        <v>5.56</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0.26</v>
+      </c>
+      <c r="K96">
+        <v>0.122</v>
+      </c>
+      <c r="L96">
+        <v>0.138</v>
+      </c>
+      <c r="M96">
+        <v>0.967687512</v>
+      </c>
+      <c r="N96">
+        <v>-0.829687512</v>
+      </c>
+      <c r="O96">
+        <v>-0.1244531268</v>
+      </c>
+      <c r="P96">
+        <v>-0.7052343852</v>
+      </c>
+      <c r="Q96">
+        <v>-0.5832343852</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>1.332988629625164</v>
+      </c>
+      <c r="T96">
+        <v>16.13039945464467</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0.02139120298991726</v>
+      </c>
+      <c r="W96">
+        <v>0.1797704360107522</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.1426080199327818</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2507075276276168</v>
+      </c>
+      <c r="C97">
+        <v>-2.204108464148689</v>
+      </c>
+      <c r="D97">
+        <v>1.25969153585131</v>
+      </c>
+      <c r="E97">
+        <v>5.2798</v>
+      </c>
+      <c r="F97">
+        <v>5.323799999999999</v>
+      </c>
+      <c r="G97">
+        <v>1.86</v>
+      </c>
+      <c r="H97">
+        <v>5.56</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0.26</v>
+      </c>
+      <c r="K97">
+        <v>0.122</v>
+      </c>
+      <c r="L97">
+        <v>0.138</v>
+      </c>
+      <c r="M97">
+        <v>0.9779820599999999</v>
+      </c>
+      <c r="N97">
+        <v>-0.8399820599999999</v>
+      </c>
+      <c r="O97">
+        <v>-0.125997309</v>
+      </c>
+      <c r="P97">
+        <v>-0.7139847509999999</v>
+      </c>
+      <c r="Q97">
+        <v>-0.5919847509999999</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>1.597726355550197</v>
+      </c>
+      <c r="T97">
+        <v>19.35647934557362</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0.02116603243212867</v>
+      </c>
+      <c r="W97">
+        <v>0.179811799842218</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.1411068828808578</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2524515276276168</v>
+      </c>
+      <c r="C98">
+        <v>-2.269183579247325</v>
+      </c>
+      <c r="D98">
+        <v>1.250656420752674</v>
+      </c>
+      <c r="E98">
+        <v>5.335839999999999</v>
+      </c>
+      <c r="F98">
+        <v>5.379839999999999</v>
+      </c>
+      <c r="G98">
+        <v>1.86</v>
+      </c>
+      <c r="H98">
+        <v>5.56</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0.26</v>
+      </c>
+      <c r="K98">
+        <v>0.122</v>
+      </c>
+      <c r="L98">
+        <v>0.138</v>
+      </c>
+      <c r="M98">
+        <v>0.9882766079999998</v>
+      </c>
+      <c r="N98">
+        <v>-0.8502766079999998</v>
+      </c>
+      <c r="O98">
+        <v>-0.1275414912</v>
+      </c>
+      <c r="P98">
+        <v>-0.7227351167999998</v>
+      </c>
+      <c r="Q98">
+        <v>-0.6007351167999998</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.994832944437742</v>
+      </c>
+      <c r="T98">
+        <v>24.19559918196697</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0.02094555292762733</v>
+      </c>
+      <c r="W98">
+        <v>0.1798523019271949</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.1396370195175155</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2541955276276168</v>
+      </c>
+      <c r="C99">
+        <v>-2.334130008935618</v>
+      </c>
+      <c r="D99">
+        <v>1.241749991064382</v>
+      </c>
+      <c r="E99">
+        <v>5.39188</v>
+      </c>
+      <c r="F99">
+        <v>5.435879999999999</v>
+      </c>
+      <c r="G99">
+        <v>1.86</v>
+      </c>
+      <c r="H99">
+        <v>5.56</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0.26</v>
+      </c>
+      <c r="K99">
+        <v>0.122</v>
+      </c>
+      <c r="L99">
+        <v>0.138</v>
+      </c>
+      <c r="M99">
+        <v>0.9985711559999999</v>
+      </c>
+      <c r="N99">
+        <v>-0.8605711559999999</v>
+      </c>
+      <c r="O99">
+        <v>-0.1290856734</v>
+      </c>
+      <c r="P99">
+        <v>-0.7314854825999999</v>
+      </c>
+      <c r="Q99">
+        <v>-0.6094854825999999</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>2.656677259250322</v>
+      </c>
+      <c r="T99">
+        <v>32.26079890928929</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.02072961939229096</v>
+      </c>
+      <c r="W99">
+        <v>0.1798919689176361</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.1381974626152731</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2559395276276168</v>
+      </c>
+      <c r="C100">
+        <v>-2.398950483035803</v>
+      </c>
+      <c r="D100">
+        <v>1.232969516964196</v>
+      </c>
+      <c r="E100">
+        <v>5.44792</v>
+      </c>
+      <c r="F100">
+        <v>5.491919999999999</v>
+      </c>
+      <c r="G100">
+        <v>1.86</v>
+      </c>
+      <c r="H100">
+        <v>5.56</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0.26</v>
+      </c>
+      <c r="K100">
+        <v>0.122</v>
+      </c>
+      <c r="L100">
+        <v>0.138</v>
+      </c>
+      <c r="M100">
+        <v>1.008865704</v>
+      </c>
+      <c r="N100">
+        <v>-0.870865704</v>
+      </c>
+      <c r="O100">
+        <v>-0.1306298556</v>
+      </c>
+      <c r="P100">
+        <v>-0.7402358484</v>
+      </c>
+      <c r="Q100">
+        <v>-0.6182358484</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>3.980365888875483</v>
+      </c>
+      <c r="T100">
+        <v>48.39119836393393</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.0205180926637982</v>
+      </c>
+      <c r="W100">
+        <v>0.1799308263776603</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.1367872844253213</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2576835276276168</v>
+      </c>
+      <c r="C101">
+        <v>-2.463647654701426</v>
+      </c>
+      <c r="D101">
+        <v>1.224312345298572</v>
+      </c>
+      <c r="E101">
+        <v>5.503959999999999</v>
+      </c>
+      <c r="F101">
+        <v>5.547959999999999</v>
+      </c>
+      <c r="G101">
+        <v>1.86</v>
+      </c>
+      <c r="H101">
+        <v>5.56</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0.26</v>
+      </c>
+      <c r="K101">
+        <v>0.122</v>
+      </c>
+      <c r="L101">
+        <v>0.138</v>
+      </c>
+      <c r="M101">
+        <v>1.019160252</v>
+      </c>
+      <c r="N101">
+        <v>-0.8811602519999998</v>
+      </c>
+      <c r="O101">
+        <v>-0.1321740378</v>
+      </c>
+      <c r="P101">
+        <v>-0.7489862141999999</v>
+      </c>
+      <c r="Q101">
+        <v>-0.6269862141999999</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>7.951431777750965</v>
+      </c>
+      <c r="T101">
+        <v>96.78239672786786</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.02031083920254771</v>
+      </c>
+      <c r="W101">
+        <v>0.179968898838492</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.1354055946836514</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
